--- a/dumps/Stocks/Jio Financial Services Ltd.xlsx
+++ b/dumps/Stocks/Jio Financial Services Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -468,6 +469,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +777,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1124,43 +1126,47 @@
       <c r="AP4" s="64" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="96" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="97" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>300.85</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3029.76</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="n">
+        <v>270.35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2722.64</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>18.27</v>
+      <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="96" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1176,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>299.2</v>
+        <v>300.85</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3013.23</v>
+        <v>3029.76</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1187,19 +1193,19 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>18.25</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="96" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1211,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>290.6</v>
+        <v>299.2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2926.6</v>
+        <v>3013.23</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1222,15 +1228,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>17.68</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="96" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1246,10 +1252,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>293.05</v>
+        <v>290.6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2951.34</v>
+        <v>2926.6</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1257,19 +1263,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>17.89</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="96" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1281,10 +1287,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>295.65</v>
+        <v>293.05</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2977.47</v>
+        <v>2951.34</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1295,12 +1301,12 @@
         <v>2.95</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>18.02</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="96" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1316,10 +1322,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>314</v>
+        <v>295.65</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3162.25</v>
+        <v>2977.47</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1327,15 +1333,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19.1</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="96" t="n">
-        <v>45968</v>
+        <v>45978</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1351,10 +1357,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>295.4</v>
+        <v>314</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2974.97</v>
+        <v>3162.25</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1362,19 +1368,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.02</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="96" t="n">
-        <v>45880</v>
+        <v>45968</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1383,134 +1389,68 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2974.97</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="96" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025  Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="38" t="n">
+    <row r="14">
+      <c r="A14" s="38" t="n">
         <v>45880</v>
       </c>
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B14" s="39" t="inlineStr">
         <is>
           <t>DIV</t>
-        </is>
-      </c>
-      <c r="C13" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D13" s="40" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="41" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" s="39" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H13" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K13" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L13" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M13" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N13" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O13" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P13" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R13" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S13" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T13" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U13" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V13" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W13" s="47" t="n"/>
-      <c r="X13" s="47" t="n"/>
-      <c r="Y13" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="47" t="n"/>
-      <c r="AA13" s="47" t="n"/>
-      <c r="AB13" s="48" t="n"/>
-      <c r="AC13" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD13" s="49" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B14" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="39" t="inlineStr">
@@ -1519,195 +1459,196 @@
         </is>
       </c>
       <c r="D14" s="40" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E14" s="41" t="n">
-        <v>287.88</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="41" t="n">
-        <v>2878.79</v>
+        <v>90</v>
       </c>
       <c r="G14" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
       <c r="H14" s="40" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I14" s="40" t="n">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="J14" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L14" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M14" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N14" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O14" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P14" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q14" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R14" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S14" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T14" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U14" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V14" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W14" s="47" t="n"/>
       <c r="X14" s="47" t="n"/>
       <c r="Y14" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z14" s="47" t="n"/>
       <c r="AA14" s="47" t="n"/>
       <c r="AB14" s="48" t="n"/>
       <c r="AC14" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD14" s="49" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B15" s="60" t="inlineStr">
+      <c r="A15" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B15" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C15" s="60" t="inlineStr">
+      <c r="C15" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D15" s="52" t="n">
+      <c r="D15" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E15" s="53" t="n">
-        <v>223.76</v>
-      </c>
-      <c r="F15" s="54">
-        <f>E7*D7 + sum(H7:I7)</f>
-        <v/>
-      </c>
-      <c r="G15" s="60" t="inlineStr">
+      <c r="E15" s="41" t="n">
+        <v>287.88</v>
+      </c>
+      <c r="F15" s="41" t="n">
+        <v>2878.79</v>
+      </c>
+      <c r="G15" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H15" s="52" t="n"/>
-      <c r="I15" s="52" t="n">
-        <v>15.75</v>
+      <c r="H15" s="40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I15" s="40" t="n">
+        <v>17.43</v>
       </c>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L15" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M15" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N15" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P15" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R15" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S15" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T15" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U15" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V15" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W15" s="47" t="n"/>
       <c r="X15" s="47" t="n"/>
       <c r="Y15" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z15" s="47" t="n"/>
       <c r="AA15" s="47" t="n"/>
       <c r="AB15" s="48" t="n"/>
       <c r="AC15" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD15" s="49" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B16" s="60" t="inlineStr">
         <is>
@@ -1723,92 +1664,91 @@
         <v>10</v>
       </c>
       <c r="E16" s="53" t="n">
-        <v>223.37</v>
-      </c>
-      <c r="F16" s="53" t="n">
-        <v>2233.74</v>
+        <v>223.76</v>
+      </c>
+      <c r="F16" s="54">
+        <f>E7*D7 + sum(H7:I7)</f>
+        <v/>
       </c>
       <c r="G16" s="60" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H16" s="52" t="n">
-        <v>2.23</v>
-      </c>
+      <c r="H16" s="52" t="n"/>
       <c r="I16" s="52" t="n">
-        <v>13.51</v>
+        <v>15.75</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L16" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M16" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N16" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P16" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R16" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S16" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T16" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U16" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V16" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W16" s="47" t="n"/>
       <c r="X16" s="47" t="n"/>
       <c r="Y16" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z16" s="47" t="n"/>
       <c r="AA16" s="47" t="n"/>
       <c r="AB16" s="48" t="n"/>
       <c r="AC16" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD16" s="49" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="50" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B17" s="60" t="inlineStr">
         <is>
@@ -1821,13 +1761,13 @@
         </is>
       </c>
       <c r="D17" s="52" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E17" s="53" t="n">
-        <v>223.82</v>
+        <v>223.37</v>
       </c>
       <c r="F17" s="53" t="n">
-        <v>3581.18</v>
+        <v>2233.74</v>
       </c>
       <c r="G17" s="60" t="inlineStr">
         <is>
@@ -1835,74 +1775,74 @@
         </is>
       </c>
       <c r="H17" s="52" t="n">
-        <v>3.56</v>
+        <v>2.23</v>
       </c>
       <c r="I17" s="52" t="n">
-        <v>21.62</v>
+        <v>13.51</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L17" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M17" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N17" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P17" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R17" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S17" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T17" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U17" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V17" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W17" s="47" t="n"/>
       <c r="X17" s="47" t="n"/>
       <c r="Y17" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z17" s="47" t="n"/>
       <c r="AA17" s="47" t="n"/>
       <c r="AB17" s="48" t="n"/>
       <c r="AC17" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD17" s="49" t="n"/>
@@ -1922,13 +1862,13 @@
         </is>
       </c>
       <c r="D18" s="52" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18" s="53" t="n">
         <v>223.82</v>
       </c>
       <c r="F18" s="53" t="n">
-        <v>5371.75</v>
+        <v>3581.18</v>
       </c>
       <c r="G18" s="60" t="inlineStr">
         <is>
@@ -1936,81 +1876,81 @@
         </is>
       </c>
       <c r="H18" s="52" t="n">
-        <v>5.32</v>
+        <v>3.56</v>
       </c>
       <c r="I18" s="52" t="n">
-        <v>32.43</v>
+        <v>21.62</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L18" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M18" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N18" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P18" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R18" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S18" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T18" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U18" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V18" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W18" s="47" t="n"/>
       <c r="X18" s="47" t="n"/>
       <c r="Y18" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z18" s="47" t="n"/>
       <c r="AA18" s="47" t="n"/>
       <c r="AB18" s="48" t="n"/>
       <c r="AC18" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD18" s="49" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B19" s="60" t="inlineStr">
         <is>
@@ -2023,13 +1963,13 @@
         </is>
       </c>
       <c r="D19" s="52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E19" s="53" t="n">
-        <v>240.73</v>
+        <v>223.82</v>
       </c>
       <c r="F19" s="53" t="n">
-        <v>1925.84</v>
+        <v>5371.75</v>
       </c>
       <c r="G19" s="60" t="inlineStr">
         <is>
@@ -2037,74 +1977,74 @@
         </is>
       </c>
       <c r="H19" s="52" t="n">
-        <v>1.91</v>
+        <v>5.32</v>
       </c>
       <c r="I19" s="52" t="n">
-        <v>11.69</v>
+        <v>32.43</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L19" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M19" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N19" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P19" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R19" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S19" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T19" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U19" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V19" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W19" s="47" t="n"/>
       <c r="X19" s="47" t="n"/>
       <c r="Y19" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z19" s="47" t="n"/>
       <c r="AA19" s="47" t="n"/>
       <c r="AB19" s="48" t="n"/>
       <c r="AC19" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD19" s="49" t="n"/>
@@ -2124,13 +2064,13 @@
         </is>
       </c>
       <c r="D20" s="52" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E20" s="53" t="n">
-        <v>240.8</v>
+        <v>240.73</v>
       </c>
       <c r="F20" s="53" t="n">
-        <v>7705.56</v>
+        <v>1925.84</v>
       </c>
       <c r="G20" s="60" t="inlineStr">
         <is>
@@ -2138,81 +2078,81 @@
         </is>
       </c>
       <c r="H20" s="52" t="n">
-        <v>7.63</v>
+        <v>1.91</v>
       </c>
       <c r="I20" s="52" t="n">
-        <v>46.73</v>
+        <v>11.69</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L20" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M20" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N20" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P20" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R20" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S20" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T20" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U20" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V20" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W20" s="47" t="n"/>
       <c r="X20" s="47" t="n"/>
       <c r="Y20" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z20" s="47" t="n"/>
       <c r="AA20" s="47" t="n"/>
       <c r="AB20" s="48" t="n"/>
       <c r="AC20" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD20" s="49" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B21" s="60" t="inlineStr">
         <is>
@@ -2225,13 +2165,13 @@
         </is>
       </c>
       <c r="D21" s="52" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E21" s="53" t="n">
-        <v>254.55</v>
+        <v>240.8</v>
       </c>
       <c r="F21" s="53" t="n">
-        <v>5090.93</v>
+        <v>7705.56</v>
       </c>
       <c r="G21" s="60" t="inlineStr">
         <is>
@@ -2239,81 +2179,81 @@
         </is>
       </c>
       <c r="H21" s="52" t="n">
-        <v>5.05</v>
+        <v>7.63</v>
       </c>
       <c r="I21" s="52" t="n">
-        <v>30.68</v>
+        <v>46.73</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L21" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M21" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N21" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P21" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R21" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S21" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T21" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U21" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V21" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W21" s="47" t="n"/>
       <c r="X21" s="47" t="n"/>
       <c r="Y21" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z21" s="47" t="n"/>
       <c r="AA21" s="47" t="n"/>
       <c r="AB21" s="48" t="n"/>
       <c r="AC21" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD21" s="49" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="50" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B22" s="60" t="inlineStr">
         <is>
@@ -2326,13 +2266,13 @@
         </is>
       </c>
       <c r="D22" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E22" s="53" t="n">
-        <v>243.01</v>
+        <v>254.55</v>
       </c>
       <c r="F22" s="53" t="n">
-        <v>9720.58</v>
+        <v>5090.93</v>
       </c>
       <c r="G22" s="60" t="inlineStr">
         <is>
@@ -2340,81 +2280,81 @@
         </is>
       </c>
       <c r="H22" s="52" t="n">
-        <v>9.630000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="I22" s="52" t="n">
-        <v>58.95</v>
+        <v>30.68</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="50" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B23" s="60" t="inlineStr">
         <is>
@@ -2427,13 +2367,13 @@
         </is>
       </c>
       <c r="D23" s="52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E23" s="53" t="n">
-        <v>322.62</v>
+        <v>243.01</v>
       </c>
       <c r="F23" s="53" t="n">
-        <v>3226.25</v>
+        <v>9720.58</v>
       </c>
       <c r="G23" s="60" t="inlineStr">
         <is>
@@ -2441,81 +2381,81 @@
         </is>
       </c>
       <c r="H23" s="52" t="n">
-        <v>3.25</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I23" s="52" t="n">
-        <v>19.5</v>
+        <v>58.95</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="50" t="n">
-        <v>45362</v>
+        <v>45621</v>
       </c>
       <c r="B24" s="60" t="inlineStr">
         <is>
@@ -2524,17 +2464,17 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D24" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="53" t="n">
-        <v>344.79</v>
+        <v>322.62</v>
       </c>
       <c r="F24" s="53" t="n">
-        <v>6895.77</v>
+        <v>3226.25</v>
       </c>
       <c r="G24" s="60" t="inlineStr">
         <is>
@@ -2542,81 +2482,81 @@
         </is>
       </c>
       <c r="H24" s="52" t="n">
-        <v>6.89</v>
+        <v>3.25</v>
       </c>
       <c r="I24" s="52" t="n">
-        <v>41.34</v>
+        <v>19.5</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B25" s="60" t="inlineStr">
         <is>
@@ -2629,13 +2569,13 @@
         </is>
       </c>
       <c r="D25" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E25" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="F25" s="53" t="n">
-        <v>12939.29</v>
+        <v>6895.77</v>
       </c>
       <c r="G25" s="60" t="inlineStr">
         <is>
@@ -2643,81 +2583,81 @@
         </is>
       </c>
       <c r="H25" s="52" t="n">
-        <v>13.24</v>
+        <v>6.89</v>
       </c>
       <c r="I25" s="52" t="n">
-        <v>77.47</v>
+        <v>41.34</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="50" t="n">
-        <v>45282</v>
+        <v>45358</v>
       </c>
       <c r="B26" s="60" t="inlineStr">
         <is>
@@ -2726,17 +2666,17 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D26" s="52" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E26" s="53" t="n">
-        <v>237.27</v>
+        <v>323.48</v>
       </c>
       <c r="F26" s="53" t="n">
-        <v>1660.92</v>
+        <v>12939.29</v>
       </c>
       <c r="G26" s="60" t="inlineStr">
         <is>
@@ -2744,93 +2684,77 @@
         </is>
       </c>
       <c r="H26" s="52" t="n">
-        <v>1.65</v>
+        <v>13.24</v>
       </c>
       <c r="I26" s="52" t="n">
-        <v>10.07</v>
+        <v>77.47</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K26" s="47" t="n"/>
-      <c r="L26" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="56">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="55" t="n"/>
-      <c r="P26" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="55" t="n"/>
-      <c r="T26" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="53" t="n">
-        <v>344.79</v>
-      </c>
-      <c r="X26" s="50" t="n">
-        <v>45362</v>
-      </c>
+      <c r="K26" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L26" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M26" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N26" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O26" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P26" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R26" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S26" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T26" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U26" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V26" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W26" s="47" t="n"/>
+      <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="57">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA26" s="57">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB26" s="58">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z26" s="47" t="n"/>
+      <c r="AA26" s="47" t="n"/>
+      <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
-      <c r="AE26" s="59" t="n"/>
-      <c r="AF26" s="59" t="n"/>
-      <c r="AG26" s="59" t="n"/>
-      <c r="AH26" s="59" t="n"/>
-      <c r="AI26" s="59" t="n"/>
-      <c r="AJ26" s="59" t="n"/>
-      <c r="AK26" s="59" t="n"/>
-      <c r="AL26" s="59" t="n"/>
-      <c r="AM26" s="59" t="n"/>
-      <c r="AN26" s="59" t="n"/>
-      <c r="AO26" s="59" t="n"/>
-      <c r="AP26" s="59" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="50" t="n">
@@ -2847,13 +2771,13 @@
         </is>
       </c>
       <c r="D27" s="52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F27" s="53" t="n">
-        <v>1423.63</v>
+        <v>1660.92</v>
       </c>
       <c r="G27" s="60" t="inlineStr">
         <is>
@@ -2861,10 +2785,10 @@
         </is>
       </c>
       <c r="H27" s="52" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="I27" s="52" t="n">
-        <v>8.619999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
@@ -2872,41 +2796,41 @@
       </c>
       <c r="K27" s="47" t="n"/>
       <c r="L27" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M27" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N27" s="56">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O27" s="55" t="n"/>
       <c r="P27" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R27" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S27" s="55" t="n"/>
       <c r="T27" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U27" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V27" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W27" s="53" t="n">
@@ -2916,23 +2840,23 @@
         <v>45362</v>
       </c>
       <c r="Y27" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z27" s="57">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA27" s="57">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB27" s="58">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC27" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
@@ -2964,13 +2888,13 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>711.8200000000001</v>
+        <v>1423.63</v>
       </c>
       <c r="G28" s="60" t="inlineStr">
         <is>
@@ -2978,10 +2902,10 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>4.31</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
@@ -2989,41 +2913,41 @@
       </c>
       <c r="K28" s="47" t="n"/>
       <c r="L28" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M28" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N28" s="56">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O28" s="55" t="n"/>
       <c r="P28" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R28" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S28" s="55" t="n"/>
       <c r="T28" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U28" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V28" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W28" s="53" t="n">
@@ -3033,23 +2957,23 @@
         <v>45362</v>
       </c>
       <c r="Y28" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z28" s="57">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA28" s="57">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB28" s="58">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC28" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
@@ -3081,13 +3005,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>949.0700000000001</v>
+        <v>711.8200000000001</v>
       </c>
       <c r="G29" s="60" t="inlineStr">
         <is>
@@ -3095,10 +3019,10 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>5.73</v>
+        <v>4.31</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
@@ -3106,41 +3030,41 @@
       </c>
       <c r="K29" s="47" t="n"/>
       <c r="L29" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M29" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N29" s="56">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O29" s="55" t="n"/>
       <c r="P29" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R29" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S29" s="55" t="n"/>
       <c r="T29" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
         <v/>
       </c>
       <c r="U29" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V29" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W29" s="53" t="n">
@@ -3150,23 +3074,23 @@
         <v>45362</v>
       </c>
       <c r="Y29" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z29" s="57">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA29" s="57">
-        <f>((E21*D21)+Z21)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB29" s="58">
-        <f>D21</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC29" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
@@ -3185,7 +3109,7 @@
     </row>
     <row r="30">
       <c r="A30" s="50" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B30" s="60" t="inlineStr">
         <is>
@@ -3198,13 +3122,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E30" s="53" t="n">
-        <v>243.71</v>
+        <v>237.27</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>4386.85</v>
+        <v>949.0700000000001</v>
       </c>
       <c r="G30" s="60" t="inlineStr">
         <is>
@@ -3212,10 +3136,10 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>4.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>26.5</v>
+        <v>5.73</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
@@ -3223,67 +3147,67 @@
       </c>
       <c r="K30" s="47" t="n"/>
       <c r="L30" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M30" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N30" s="56">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O30" s="55" t="n"/>
       <c r="P30" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R30" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S30" s="55" t="n"/>
       <c r="T30" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
         <v/>
       </c>
       <c r="U30" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V30" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W30" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="X30" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="Y30" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z30" s="57">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
         <v/>
       </c>
       <c r="AA30" s="57">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E21*D21)+Z21)</f>
         <v/>
       </c>
       <c r="AB30" s="58">
-        <f>D22</f>
+        <f>D21</f>
         <v/>
       </c>
       <c r="AC30" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
@@ -3302,7 +3226,7 @@
     </row>
     <row r="31">
       <c r="A31" s="50" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B31" s="60" t="inlineStr">
         <is>
@@ -3315,13 +3239,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="53" t="n">
-        <v>228.11</v>
+        <v>243.71</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>2281.06</v>
+        <v>4386.85</v>
       </c>
       <c r="G31" s="60" t="inlineStr">
         <is>
@@ -3329,10 +3253,10 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>2.27</v>
+        <v>4.35</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>13.79</v>
+        <v>26.5</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
@@ -3340,41 +3264,41 @@
       </c>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M31" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N31" s="56">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O31" s="55" t="n"/>
       <c r="P31" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R31" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S31" s="55" t="n"/>
       <c r="T31" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
         <v/>
       </c>
       <c r="U31" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V31" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W31" s="53" t="n">
@@ -3384,23 +3308,23 @@
         <v>45358</v>
       </c>
       <c r="Y31" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z31" s="57">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
         <v/>
       </c>
       <c r="AA31" s="57">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E22*D22)+Z22)</f>
         <v/>
       </c>
       <c r="AB31" s="58">
-        <f>D23</f>
+        <f>D22</f>
         <v/>
       </c>
       <c r="AC31" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
@@ -3419,33 +3343,37 @@
     </row>
     <row r="32">
       <c r="A32" s="50" t="n">
-        <v>45127</v>
-      </c>
-      <c r="B32" s="60" t="n"/>
+        <v>45258</v>
+      </c>
+      <c r="B32" s="60" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="53" t="n">
-        <v>115.22</v>
+        <v>228.11</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>1382.62</v>
+        <v>2281.06</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
-          <t>Price derived from purchase price of corresponding RIL Shares</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>1.37</v>
+        <v>2.27</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>8.359999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
@@ -3453,41 +3381,41 @@
       </c>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M32" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N32" s="56">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O32" s="55" t="n"/>
       <c r="P32" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R32" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S32" s="55" t="n"/>
       <c r="T32" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U32" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V32" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W32" s="53" t="n">
@@ -3497,23 +3425,23 @@
         <v>45358</v>
       </c>
       <c r="Y32" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z32" s="57">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
         <v/>
       </c>
       <c r="AA32" s="57">
-        <f>((E24*D24)+Z24)</f>
+        <f>((E23*D23)+Z23)</f>
         <v/>
       </c>
       <c r="AB32" s="58">
-        <f>D24</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="AC32" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -3531,20 +3459,117 @@
       <c r="AP32" s="59" t="n"/>
     </row>
     <row r="33">
-      <c r="E33" s="61" t="n"/>
-      <c r="F33" s="61" t="n"/>
-      <c r="G33" s="62" t="n"/>
-      <c r="J33" s="61" t="n"/>
-      <c r="K33" s="61" t="n"/>
-      <c r="L33" s="61" t="n"/>
-      <c r="M33" s="64" t="n"/>
-      <c r="W33" s="61" t="n"/>
-      <c r="X33" s="61" t="n"/>
-      <c r="Y33" s="61" t="n"/>
-      <c r="Z33" s="61" t="n"/>
-      <c r="AA33" s="61" t="n"/>
-      <c r="AB33" s="61" t="n"/>
-      <c r="AC33" s="61" t="n"/>
+      <c r="A33" s="50" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B33" s="60" t="n"/>
+      <c r="C33" s="60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E33" s="53" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="F33" s="53" t="n">
+        <v>1382.62</v>
+      </c>
+      <c r="G33" s="60" t="inlineStr">
+        <is>
+          <t>Price derived from purchase price of corresponding RIL Shares</t>
+        </is>
+      </c>
+      <c r="H33" s="52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I33" s="52" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J33" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="47" t="n"/>
+      <c r="L33" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="56">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="55" t="n"/>
+      <c r="P33" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="55" t="n"/>
+      <c r="T33" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="53" t="n">
+        <v>323.48</v>
+      </c>
+      <c r="X33" s="50" t="n">
+        <v>45358</v>
+      </c>
+      <c r="Y33" s="46">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="57">
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="57">
+        <f>((E24*D24)+Z24)</f>
+        <v/>
+      </c>
+      <c r="AB33" s="58">
+        <f>D24</f>
+        <v/>
+      </c>
+      <c r="AC33" s="44">
+        <f>if(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="49" t="n"/>
+      <c r="AE33" s="59" t="n"/>
+      <c r="AF33" s="59" t="n"/>
+      <c r="AG33" s="59" t="n"/>
+      <c r="AH33" s="59" t="n"/>
+      <c r="AI33" s="59" t="n"/>
+      <c r="AJ33" s="59" t="n"/>
+      <c r="AK33" s="59" t="n"/>
+      <c r="AL33" s="59" t="n"/>
+      <c r="AM33" s="59" t="n"/>
+      <c r="AN33" s="59" t="n"/>
+      <c r="AO33" s="59" t="n"/>
+      <c r="AP33" s="59" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="61" t="n"/>
@@ -18513,6 +18538,7 @@
       <c r="J969" s="61" t="n"/>
       <c r="K969" s="61" t="n"/>
       <c r="L969" s="61" t="n"/>
+      <c r="M969" s="64" t="n"/>
       <c r="W969" s="61" t="n"/>
       <c r="X969" s="61" t="n"/>
       <c r="Y969" s="61" t="n"/>
@@ -18760,6 +18786,21 @@
       <c r="AA985" s="61" t="n"/>
       <c r="AB985" s="61" t="n"/>
       <c r="AC985" s="61" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="61" t="n"/>
+      <c r="F986" s="61" t="n"/>
+      <c r="G986" s="62" t="n"/>
+      <c r="J986" s="61" t="n"/>
+      <c r="K986" s="61" t="n"/>
+      <c r="L986" s="61" t="n"/>
+      <c r="W986" s="61" t="n"/>
+      <c r="X986" s="61" t="n"/>
+      <c r="Y986" s="61" t="n"/>
+      <c r="Z986" s="61" t="n"/>
+      <c r="AA986" s="61" t="n"/>
+      <c r="AB986" s="61" t="n"/>
+      <c r="AC986" s="61" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Jio Financial Services Ltd.xlsx
+++ b/dumps/Stocks/Jio Financial Services Ltd.xlsx
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP986"/>
+  <dimension ref="A1:AP987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1127,11 +1127,11 @@
     </row>
     <row r="5">
       <c r="A5" s="97" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1143,21 +1143,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>270.35</v>
+        <v>271.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2722.64</v>
+        <v>2737.29</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44</v>
+        <v>16.57</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1165,8 +1165,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="96" t="n">
-        <v>46015</v>
+      <c r="A6" s="97" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1182,26 +1182,30 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>300.85</v>
+        <v>270.35</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3029.76</v>
+        <v>2722.64</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>18.27</v>
+        <v>16.44</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="96" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1217,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>299.2</v>
+        <v>300.85</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3013.23</v>
+        <v>3029.76</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1228,19 +1232,19 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>18.25</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="96" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1252,10 +1256,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>290.6</v>
+        <v>299.2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2926.6</v>
+        <v>3013.23</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1263,15 +1267,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>17.68</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="96" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1287,10 +1291,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>293.05</v>
+        <v>290.6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2951.34</v>
+        <v>2926.6</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1298,19 +1302,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>17.89</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="96" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1322,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>295.65</v>
+        <v>293.05</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2977.47</v>
+        <v>2951.34</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1336,12 +1340,12 @@
         <v>2.95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.02</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="96" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1357,10 +1361,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>314</v>
+        <v>295.65</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3162.25</v>
+        <v>2977.47</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1368,15 +1372,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19.1</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="96" t="n">
-        <v>45968</v>
+        <v>45978</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1392,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>295.4</v>
+        <v>314</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2974.97</v>
+        <v>3162.25</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1403,19 +1407,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>18.02</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="96" t="n">
-        <v>45880</v>
+        <v>45968</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1424,134 +1428,68 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2974.97</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="96" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025  Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="38" t="n">
+    <row r="15">
+      <c r="A15" s="38" t="n">
         <v>45880</v>
       </c>
-      <c r="B14" s="39" t="inlineStr">
+      <c r="B15" s="39" t="inlineStr">
         <is>
           <t>DIV</t>
-        </is>
-      </c>
-      <c r="C14" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D14" s="40" t="n">
-        <v>180</v>
-      </c>
-      <c r="E14" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="41" t="n">
-        <v>90</v>
-      </c>
-      <c r="G14" s="39" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H14" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K14" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N14" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O14" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S14" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T14" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U14" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V14" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W14" s="47" t="n"/>
-      <c r="X14" s="47" t="n"/>
-      <c r="Y14" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="47" t="n"/>
-      <c r="AA14" s="47" t="n"/>
-      <c r="AB14" s="48" t="n"/>
-      <c r="AC14" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD14" s="49" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B15" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -1560,195 +1498,196 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>287.88</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="41" t="n">
-        <v>2878.79</v>
+        <v>90</v>
       </c>
       <c r="G15" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
       <c r="H15" s="40" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I15" s="40" t="n">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N15" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S15" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T15" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U15" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V15" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W15" s="47" t="n"/>
       <c r="X15" s="47" t="n"/>
       <c r="Y15" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z15" s="47" t="n"/>
       <c r="AA15" s="47" t="n"/>
       <c r="AB15" s="48" t="n"/>
       <c r="AC15" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD15" s="49" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B16" s="60" t="inlineStr">
+      <c r="A16" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B16" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C16" s="60" t="inlineStr">
+      <c r="C16" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D16" s="52" t="n">
+      <c r="D16" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="53" t="n">
-        <v>223.76</v>
-      </c>
-      <c r="F16" s="54">
-        <f>E7*D7 + sum(H7:I7)</f>
-        <v/>
-      </c>
-      <c r="G16" s="60" t="inlineStr">
+      <c r="E16" s="41" t="n">
+        <v>287.88</v>
+      </c>
+      <c r="F16" s="41" t="n">
+        <v>2878.79</v>
+      </c>
+      <c r="G16" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H16" s="52" t="n"/>
-      <c r="I16" s="52" t="n">
-        <v>15.75</v>
+      <c r="H16" s="40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I16" s="40" t="n">
+        <v>17.43</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N16" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S16" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T16" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U16" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V16" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W16" s="47" t="n"/>
       <c r="X16" s="47" t="n"/>
       <c r="Y16" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z16" s="47" t="n"/>
       <c r="AA16" s="47" t="n"/>
       <c r="AB16" s="48" t="n"/>
       <c r="AC16" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD16" s="49" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B17" s="60" t="inlineStr">
         <is>
@@ -1764,92 +1703,91 @@
         <v>10</v>
       </c>
       <c r="E17" s="53" t="n">
-        <v>223.37</v>
-      </c>
-      <c r="F17" s="53" t="n">
-        <v>2233.74</v>
+        <v>223.76</v>
+      </c>
+      <c r="F17" s="54">
+        <f>E7*D7 + sum(H7:I7)</f>
+        <v/>
       </c>
       <c r="G17" s="60" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H17" s="52" t="n">
-        <v>2.23</v>
-      </c>
+      <c r="H17" s="52" t="n"/>
       <c r="I17" s="52" t="n">
-        <v>13.51</v>
+        <v>15.75</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N17" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S17" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T17" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U17" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V17" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W17" s="47" t="n"/>
       <c r="X17" s="47" t="n"/>
       <c r="Y17" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z17" s="47" t="n"/>
       <c r="AA17" s="47" t="n"/>
       <c r="AB17" s="48" t="n"/>
       <c r="AC17" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD17" s="49" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="50" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B18" s="60" t="inlineStr">
         <is>
@@ -1862,13 +1800,13 @@
         </is>
       </c>
       <c r="D18" s="52" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="53" t="n">
-        <v>223.82</v>
+        <v>223.37</v>
       </c>
       <c r="F18" s="53" t="n">
-        <v>3581.18</v>
+        <v>2233.74</v>
       </c>
       <c r="G18" s="60" t="inlineStr">
         <is>
@@ -1876,74 +1814,74 @@
         </is>
       </c>
       <c r="H18" s="52" t="n">
-        <v>3.56</v>
+        <v>2.23</v>
       </c>
       <c r="I18" s="52" t="n">
-        <v>21.62</v>
+        <v>13.51</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N18" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S18" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T18" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U18" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V18" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W18" s="47" t="n"/>
       <c r="X18" s="47" t="n"/>
       <c r="Y18" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z18" s="47" t="n"/>
       <c r="AA18" s="47" t="n"/>
       <c r="AB18" s="48" t="n"/>
       <c r="AC18" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD18" s="49" t="n"/>
@@ -1963,13 +1901,13 @@
         </is>
       </c>
       <c r="D19" s="52" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E19" s="53" t="n">
         <v>223.82</v>
       </c>
       <c r="F19" s="53" t="n">
-        <v>5371.75</v>
+        <v>3581.18</v>
       </c>
       <c r="G19" s="60" t="inlineStr">
         <is>
@@ -1977,81 +1915,81 @@
         </is>
       </c>
       <c r="H19" s="52" t="n">
-        <v>5.32</v>
+        <v>3.56</v>
       </c>
       <c r="I19" s="52" t="n">
-        <v>32.43</v>
+        <v>21.62</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N19" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S19" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T19" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U19" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V19" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W19" s="47" t="n"/>
       <c r="X19" s="47" t="n"/>
       <c r="Y19" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z19" s="47" t="n"/>
       <c r="AA19" s="47" t="n"/>
       <c r="AB19" s="48" t="n"/>
       <c r="AC19" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD19" s="49" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B20" s="60" t="inlineStr">
         <is>
@@ -2064,13 +2002,13 @@
         </is>
       </c>
       <c r="D20" s="52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E20" s="53" t="n">
-        <v>240.73</v>
+        <v>223.82</v>
       </c>
       <c r="F20" s="53" t="n">
-        <v>1925.84</v>
+        <v>5371.75</v>
       </c>
       <c r="G20" s="60" t="inlineStr">
         <is>
@@ -2078,74 +2016,74 @@
         </is>
       </c>
       <c r="H20" s="52" t="n">
-        <v>1.91</v>
+        <v>5.32</v>
       </c>
       <c r="I20" s="52" t="n">
-        <v>11.69</v>
+        <v>32.43</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N20" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S20" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T20" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U20" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V20" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W20" s="47" t="n"/>
       <c r="X20" s="47" t="n"/>
       <c r="Y20" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z20" s="47" t="n"/>
       <c r="AA20" s="47" t="n"/>
       <c r="AB20" s="48" t="n"/>
       <c r="AC20" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD20" s="49" t="n"/>
@@ -2165,13 +2103,13 @@
         </is>
       </c>
       <c r="D21" s="52" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E21" s="53" t="n">
-        <v>240.8</v>
+        <v>240.73</v>
       </c>
       <c r="F21" s="53" t="n">
-        <v>7705.56</v>
+        <v>1925.84</v>
       </c>
       <c r="G21" s="60" t="inlineStr">
         <is>
@@ -2179,81 +2117,81 @@
         </is>
       </c>
       <c r="H21" s="52" t="n">
-        <v>7.63</v>
+        <v>1.91</v>
       </c>
       <c r="I21" s="52" t="n">
-        <v>46.73</v>
+        <v>11.69</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N21" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S21" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T21" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U21" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V21" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W21" s="47" t="n"/>
       <c r="X21" s="47" t="n"/>
       <c r="Y21" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z21" s="47" t="n"/>
       <c r="AA21" s="47" t="n"/>
       <c r="AB21" s="48" t="n"/>
       <c r="AC21" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD21" s="49" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B22" s="60" t="inlineStr">
         <is>
@@ -2266,13 +2204,13 @@
         </is>
       </c>
       <c r="D22" s="52" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E22" s="53" t="n">
-        <v>254.55</v>
+        <v>240.8</v>
       </c>
       <c r="F22" s="53" t="n">
-        <v>5090.93</v>
+        <v>7705.56</v>
       </c>
       <c r="G22" s="60" t="inlineStr">
         <is>
@@ -2280,81 +2218,81 @@
         </is>
       </c>
       <c r="H22" s="52" t="n">
-        <v>5.05</v>
+        <v>7.63</v>
       </c>
       <c r="I22" s="52" t="n">
-        <v>30.68</v>
+        <v>46.73</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="50" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B23" s="60" t="inlineStr">
         <is>
@@ -2367,13 +2305,13 @@
         </is>
       </c>
       <c r="D23" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E23" s="53" t="n">
-        <v>243.01</v>
+        <v>254.55</v>
       </c>
       <c r="F23" s="53" t="n">
-        <v>9720.58</v>
+        <v>5090.93</v>
       </c>
       <c r="G23" s="60" t="inlineStr">
         <is>
@@ -2381,81 +2319,81 @@
         </is>
       </c>
       <c r="H23" s="52" t="n">
-        <v>9.630000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="I23" s="52" t="n">
-        <v>58.95</v>
+        <v>30.68</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="50" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B24" s="60" t="inlineStr">
         <is>
@@ -2468,13 +2406,13 @@
         </is>
       </c>
       <c r="D24" s="52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E24" s="53" t="n">
-        <v>322.62</v>
+        <v>243.01</v>
       </c>
       <c r="F24" s="53" t="n">
-        <v>3226.25</v>
+        <v>9720.58</v>
       </c>
       <c r="G24" s="60" t="inlineStr">
         <is>
@@ -2482,81 +2420,81 @@
         </is>
       </c>
       <c r="H24" s="52" t="n">
-        <v>3.25</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I24" s="52" t="n">
-        <v>19.5</v>
+        <v>58.95</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="50" t="n">
-        <v>45362</v>
+        <v>45621</v>
       </c>
       <c r="B25" s="60" t="inlineStr">
         <is>
@@ -2565,17 +2503,17 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D25" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" s="53" t="n">
-        <v>344.79</v>
+        <v>322.62</v>
       </c>
       <c r="F25" s="53" t="n">
-        <v>6895.77</v>
+        <v>3226.25</v>
       </c>
       <c r="G25" s="60" t="inlineStr">
         <is>
@@ -2583,81 +2521,81 @@
         </is>
       </c>
       <c r="H25" s="52" t="n">
-        <v>6.89</v>
+        <v>3.25</v>
       </c>
       <c r="I25" s="52" t="n">
-        <v>41.34</v>
+        <v>19.5</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B26" s="60" t="inlineStr">
         <is>
@@ -2670,13 +2608,13 @@
         </is>
       </c>
       <c r="D26" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E26" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="F26" s="53" t="n">
-        <v>12939.29</v>
+        <v>6895.77</v>
       </c>
       <c r="G26" s="60" t="inlineStr">
         <is>
@@ -2684,81 +2622,81 @@
         </is>
       </c>
       <c r="H26" s="52" t="n">
-        <v>13.24</v>
+        <v>6.89</v>
       </c>
       <c r="I26" s="52" t="n">
-        <v>77.47</v>
+        <v>41.34</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="50" t="n">
-        <v>45282</v>
+        <v>45358</v>
       </c>
       <c r="B27" s="60" t="inlineStr">
         <is>
@@ -2767,17 +2705,17 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D27" s="52" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E27" s="53" t="n">
-        <v>237.27</v>
+        <v>323.48</v>
       </c>
       <c r="F27" s="53" t="n">
-        <v>1660.92</v>
+        <v>12939.29</v>
       </c>
       <c r="G27" s="60" t="inlineStr">
         <is>
@@ -2785,93 +2723,77 @@
         </is>
       </c>
       <c r="H27" s="52" t="n">
-        <v>1.65</v>
+        <v>13.24</v>
       </c>
       <c r="I27" s="52" t="n">
-        <v>10.07</v>
+        <v>77.47</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K27" s="47" t="n"/>
-      <c r="L27" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="56">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="55" t="n"/>
-      <c r="P27" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="55" t="n"/>
-      <c r="T27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="53" t="n">
-        <v>344.79</v>
-      </c>
-      <c r="X27" s="50" t="n">
-        <v>45362</v>
-      </c>
+      <c r="K27" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N27" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O27" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S27" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T27" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U27" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V27" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W27" s="47" t="n"/>
+      <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="57">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA27" s="57">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB27" s="58">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="47" t="n"/>
+      <c r="AA27" s="47" t="n"/>
+      <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
-      <c r="AE27" s="59" t="n"/>
-      <c r="AF27" s="59" t="n"/>
-      <c r="AG27" s="59" t="n"/>
-      <c r="AH27" s="59" t="n"/>
-      <c r="AI27" s="59" t="n"/>
-      <c r="AJ27" s="59" t="n"/>
-      <c r="AK27" s="59" t="n"/>
-      <c r="AL27" s="59" t="n"/>
-      <c r="AM27" s="59" t="n"/>
-      <c r="AN27" s="59" t="n"/>
-      <c r="AO27" s="59" t="n"/>
-      <c r="AP27" s="59" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="50" t="n">
@@ -2888,13 +2810,13 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>1423.63</v>
+        <v>1660.92</v>
       </c>
       <c r="G28" s="60" t="inlineStr">
         <is>
@@ -2902,10 +2824,10 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>8.619999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
@@ -2913,41 +2835,41 @@
       </c>
       <c r="K28" s="47" t="n"/>
       <c r="L28" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N28" s="56">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O28" s="55" t="n"/>
       <c r="P28" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S28" s="55" t="n"/>
       <c r="T28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W28" s="53" t="n">
@@ -2957,23 +2879,23 @@
         <v>45362</v>
       </c>
       <c r="Y28" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z28" s="57">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA28" s="57">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB28" s="58">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC28" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
@@ -3005,13 +2927,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>711.8200000000001</v>
+        <v>1423.63</v>
       </c>
       <c r="G29" s="60" t="inlineStr">
         <is>
@@ -3019,10 +2941,10 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>4.31</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
@@ -3030,41 +2952,41 @@
       </c>
       <c r="K29" s="47" t="n"/>
       <c r="L29" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N29" s="56">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O29" s="55" t="n"/>
       <c r="P29" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S29" s="55" t="n"/>
       <c r="T29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W29" s="53" t="n">
@@ -3074,23 +2996,23 @@
         <v>45362</v>
       </c>
       <c r="Y29" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z29" s="57">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA29" s="57">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB29" s="58">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC29" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
@@ -3122,13 +3044,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>949.0700000000001</v>
+        <v>711.8200000000001</v>
       </c>
       <c r="G30" s="60" t="inlineStr">
         <is>
@@ -3136,10 +3058,10 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>5.73</v>
+        <v>4.31</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
@@ -3147,41 +3069,41 @@
       </c>
       <c r="K30" s="47" t="n"/>
       <c r="L30" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N30" s="56">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O30" s="55" t="n"/>
       <c r="P30" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S30" s="55" t="n"/>
       <c r="T30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
         <v/>
       </c>
       <c r="U30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W30" s="53" t="n">
@@ -3191,23 +3113,23 @@
         <v>45362</v>
       </c>
       <c r="Y30" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z30" s="57">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA30" s="57">
-        <f>((E21*D21)+Z21)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB30" s="58">
-        <f>D21</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC30" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
@@ -3226,7 +3148,7 @@
     </row>
     <row r="31">
       <c r="A31" s="50" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B31" s="60" t="inlineStr">
         <is>
@@ -3239,13 +3161,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E31" s="53" t="n">
-        <v>243.71</v>
+        <v>237.27</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>4386.85</v>
+        <v>949.0700000000001</v>
       </c>
       <c r="G31" s="60" t="inlineStr">
         <is>
@@ -3253,10 +3175,10 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>4.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>26.5</v>
+        <v>5.73</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
@@ -3264,67 +3186,67 @@
       </c>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N31" s="56">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O31" s="55" t="n"/>
       <c r="P31" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S31" s="55" t="n"/>
       <c r="T31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
         <v/>
       </c>
       <c r="U31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W31" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="X31" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="Y31" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z31" s="57">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
         <v/>
       </c>
       <c r="AA31" s="57">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E21*D21)+Z21)</f>
         <v/>
       </c>
       <c r="AB31" s="58">
-        <f>D22</f>
+        <f>D21</f>
         <v/>
       </c>
       <c r="AC31" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
@@ -3343,7 +3265,7 @@
     </row>
     <row r="32">
       <c r="A32" s="50" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B32" s="60" t="inlineStr">
         <is>
@@ -3356,13 +3278,13 @@
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E32" s="53" t="n">
-        <v>228.11</v>
+        <v>243.71</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>2281.06</v>
+        <v>4386.85</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
@@ -3370,10 +3292,10 @@
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>2.27</v>
+        <v>4.35</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>13.79</v>
+        <v>26.5</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
@@ -3381,41 +3303,41 @@
       </c>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N32" s="56">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O32" s="55" t="n"/>
       <c r="P32" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S32" s="55" t="n"/>
       <c r="T32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
         <v/>
       </c>
       <c r="U32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W32" s="53" t="n">
@@ -3425,23 +3347,23 @@
         <v>45358</v>
       </c>
       <c r="Y32" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z32" s="57">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
         <v/>
       </c>
       <c r="AA32" s="57">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E22*D22)+Z22)</f>
         <v/>
       </c>
       <c r="AB32" s="58">
-        <f>D23</f>
+        <f>D22</f>
         <v/>
       </c>
       <c r="AC32" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -3460,33 +3382,37 @@
     </row>
     <row r="33">
       <c r="A33" s="50" t="n">
-        <v>45127</v>
-      </c>
-      <c r="B33" s="60" t="n"/>
+        <v>45258</v>
+      </c>
+      <c r="B33" s="60" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="53" t="n">
-        <v>115.22</v>
+        <v>228.11</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>1382.62</v>
+        <v>2281.06</v>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
-          <t>Price derived from purchase price of corresponding RIL Shares</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>1.37</v>
+        <v>2.27</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>8.359999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
@@ -3494,41 +3420,41 @@
       </c>
       <c r="K33" s="47" t="n"/>
       <c r="L33" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N33" s="56">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O33" s="55" t="n"/>
       <c r="P33" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S33" s="55" t="n"/>
       <c r="T33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W33" s="53" t="n">
@@ -3538,23 +3464,23 @@
         <v>45358</v>
       </c>
       <c r="Y33" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z33" s="57">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
         <v/>
       </c>
       <c r="AA33" s="57">
-        <f>((E24*D24)+Z24)</f>
+        <f>((E23*D23)+Z23)</f>
         <v/>
       </c>
       <c r="AB33" s="58">
-        <f>D24</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="AC33" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
@@ -3572,20 +3498,117 @@
       <c r="AP33" s="59" t="n"/>
     </row>
     <row r="34">
-      <c r="E34" s="61" t="n"/>
-      <c r="F34" s="61" t="n"/>
-      <c r="G34" s="62" t="n"/>
-      <c r="J34" s="61" t="n"/>
-      <c r="K34" s="61" t="n"/>
-      <c r="L34" s="61" t="n"/>
-      <c r="M34" s="64" t="n"/>
-      <c r="W34" s="61" t="n"/>
-      <c r="X34" s="61" t="n"/>
-      <c r="Y34" s="61" t="n"/>
-      <c r="Z34" s="61" t="n"/>
-      <c r="AA34" s="61" t="n"/>
-      <c r="AB34" s="61" t="n"/>
-      <c r="AC34" s="61" t="n"/>
+      <c r="A34" s="50" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B34" s="60" t="n"/>
+      <c r="C34" s="60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E34" s="53" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="F34" s="53" t="n">
+        <v>1382.62</v>
+      </c>
+      <c r="G34" s="60" t="inlineStr">
+        <is>
+          <t>Price derived from purchase price of corresponding RIL Shares</t>
+        </is>
+      </c>
+      <c r="H34" s="52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I34" s="52" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J34" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="47" t="n"/>
+      <c r="L34" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="56">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="55" t="n"/>
+      <c r="P34" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="55" t="n"/>
+      <c r="T34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="53" t="n">
+        <v>323.48</v>
+      </c>
+      <c r="X34" s="50" t="n">
+        <v>45358</v>
+      </c>
+      <c r="Y34" s="46">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="57">
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <v/>
+      </c>
+      <c r="AA34" s="57">
+        <f>((E24*D24)+Z24)</f>
+        <v/>
+      </c>
+      <c r="AB34" s="58">
+        <f>D24</f>
+        <v/>
+      </c>
+      <c r="AC34" s="44">
+        <f>if(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="49" t="n"/>
+      <c r="AE34" s="59" t="n"/>
+      <c r="AF34" s="59" t="n"/>
+      <c r="AG34" s="59" t="n"/>
+      <c r="AH34" s="59" t="n"/>
+      <c r="AI34" s="59" t="n"/>
+      <c r="AJ34" s="59" t="n"/>
+      <c r="AK34" s="59" t="n"/>
+      <c r="AL34" s="59" t="n"/>
+      <c r="AM34" s="59" t="n"/>
+      <c r="AN34" s="59" t="n"/>
+      <c r="AO34" s="59" t="n"/>
+      <c r="AP34" s="59" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="61" t="n"/>
@@ -18554,6 +18577,7 @@
       <c r="J970" s="61" t="n"/>
       <c r="K970" s="61" t="n"/>
       <c r="L970" s="61" t="n"/>
+      <c r="M970" s="64" t="n"/>
       <c r="W970" s="61" t="n"/>
       <c r="X970" s="61" t="n"/>
       <c r="Y970" s="61" t="n"/>
@@ -18801,6 +18825,21 @@
       <c r="AA986" s="61" t="n"/>
       <c r="AB986" s="61" t="n"/>
       <c r="AC986" s="61" t="n"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="61" t="n"/>
+      <c r="F987" s="61" t="n"/>
+      <c r="G987" s="62" t="n"/>
+      <c r="J987" s="61" t="n"/>
+      <c r="K987" s="61" t="n"/>
+      <c r="L987" s="61" t="n"/>
+      <c r="W987" s="61" t="n"/>
+      <c r="X987" s="61" t="n"/>
+      <c r="Y987" s="61" t="n"/>
+      <c r="Z987" s="61" t="n"/>
+      <c r="AA987" s="61" t="n"/>
+      <c r="AB987" s="61" t="n"/>
+      <c r="AC987" s="61" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Jio Financial Services Ltd.xlsx
+++ b/dumps/Stocks/Jio Financial Services Ltd.xlsx
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP987"/>
+  <dimension ref="A1:AP988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1127,11 +1127,11 @@
     </row>
     <row r="5">
       <c r="A5" s="97" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1143,21 +1143,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>271.8</v>
+        <v>267.25</v>
       </c>
       <c r="F5" t="n">
-        <v>2737.29</v>
+        <v>2685.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>2.72</v>
-      </c>
       <c r="I5" t="n">
-        <v>16.57</v>
+        <v>13.4</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1166,11 +1163,11 @@
     </row>
     <row r="6">
       <c r="A6" s="97" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1182,21 +1179,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>270.35</v>
+        <v>271.8</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2722.64</v>
+        <v>2737.29</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>16.44</v>
+        <v>16.57</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1204,8 +1201,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="96" t="n">
-        <v>46015</v>
+      <c r="A7" s="97" t="n">
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1221,26 +1218,30 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>300.85</v>
+        <v>270.35</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3029.76</v>
+        <v>2722.64</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>18.27</v>
+        <v>16.44</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="96" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1256,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>299.2</v>
+        <v>300.85</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3013.23</v>
+        <v>3029.76</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1267,19 +1268,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>18.25</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="96" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1291,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>290.6</v>
+        <v>299.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2926.6</v>
+        <v>3013.23</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1302,15 +1303,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>17.68</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="96" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1326,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>293.05</v>
+        <v>290.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2951.34</v>
+        <v>2926.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1337,19 +1338,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>17.89</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="96" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1361,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>295.65</v>
+        <v>293.05</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2977.47</v>
+        <v>2951.34</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1375,12 +1376,12 @@
         <v>2.95</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.02</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="96" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1396,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>314</v>
+        <v>295.65</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3162.25</v>
+        <v>2977.47</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1407,15 +1408,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19.1</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="96" t="n">
-        <v>45968</v>
+        <v>45978</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1431,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>295.4</v>
+        <v>314</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2974.97</v>
+        <v>3162.25</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1442,19 +1443,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>18.02</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="96" t="n">
-        <v>45880</v>
+        <v>45968</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1463,134 +1464,68 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2974.97</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="96" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025  Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="38" t="n">
+    <row r="16">
+      <c r="A16" s="38" t="n">
         <v>45880</v>
       </c>
-      <c r="B15" s="39" t="inlineStr">
+      <c r="B16" s="39" t="inlineStr">
         <is>
           <t>DIV</t>
-        </is>
-      </c>
-      <c r="C15" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D15" s="40" t="n">
-        <v>180</v>
-      </c>
-      <c r="E15" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="41" t="n">
-        <v>90</v>
-      </c>
-      <c r="G15" s="39" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H15" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K15" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N15" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O15" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S15" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T15" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U15" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V15" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W15" s="47" t="n"/>
-      <c r="X15" s="47" t="n"/>
-      <c r="Y15" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="47" t="n"/>
-      <c r="AA15" s="47" t="n"/>
-      <c r="AB15" s="48" t="n"/>
-      <c r="AC15" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD15" s="49" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B16" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
@@ -1599,195 +1534,196 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>287.88</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="41" t="n">
-        <v>2878.79</v>
+        <v>90</v>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
       <c r="H16" s="40" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I16" s="40" t="n">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N16" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S16" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T16" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U16" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V16" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W16" s="47" t="n"/>
       <c r="X16" s="47" t="n"/>
       <c r="Y16" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z16" s="47" t="n"/>
       <c r="AA16" s="47" t="n"/>
       <c r="AB16" s="48" t="n"/>
       <c r="AC16" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD16" s="49" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B17" s="60" t="inlineStr">
+      <c r="A17" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B17" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C17" s="60" t="inlineStr">
+      <c r="C17" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D17" s="52" t="n">
+      <c r="D17" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E17" s="53" t="n">
-        <v>223.76</v>
-      </c>
-      <c r="F17" s="54">
-        <f>E7*D7 + sum(H7:I7)</f>
-        <v/>
-      </c>
-      <c r="G17" s="60" t="inlineStr">
+      <c r="E17" s="41" t="n">
+        <v>287.88</v>
+      </c>
+      <c r="F17" s="41" t="n">
+        <v>2878.79</v>
+      </c>
+      <c r="G17" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H17" s="52" t="n"/>
-      <c r="I17" s="52" t="n">
-        <v>15.75</v>
+      <c r="H17" s="40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I17" s="40" t="n">
+        <v>17.43</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N17" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S17" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T17" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U17" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V17" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W17" s="47" t="n"/>
       <c r="X17" s="47" t="n"/>
       <c r="Y17" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z17" s="47" t="n"/>
       <c r="AA17" s="47" t="n"/>
       <c r="AB17" s="48" t="n"/>
       <c r="AC17" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD17" s="49" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B18" s="60" t="inlineStr">
         <is>
@@ -1803,92 +1739,91 @@
         <v>10</v>
       </c>
       <c r="E18" s="53" t="n">
-        <v>223.37</v>
-      </c>
-      <c r="F18" s="53" t="n">
-        <v>2233.74</v>
+        <v>223.76</v>
+      </c>
+      <c r="F18" s="54">
+        <f>E7*D7 + sum(H7:I7)</f>
+        <v/>
       </c>
       <c r="G18" s="60" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H18" s="52" t="n">
-        <v>2.23</v>
-      </c>
+      <c r="H18" s="52" t="n"/>
       <c r="I18" s="52" t="n">
-        <v>13.51</v>
+        <v>15.75</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N18" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S18" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T18" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U18" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V18" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W18" s="47" t="n"/>
       <c r="X18" s="47" t="n"/>
       <c r="Y18" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z18" s="47" t="n"/>
       <c r="AA18" s="47" t="n"/>
       <c r="AB18" s="48" t="n"/>
       <c r="AC18" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD18" s="49" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="50" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B19" s="60" t="inlineStr">
         <is>
@@ -1901,13 +1836,13 @@
         </is>
       </c>
       <c r="D19" s="52" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="53" t="n">
-        <v>223.82</v>
+        <v>223.37</v>
       </c>
       <c r="F19" s="53" t="n">
-        <v>3581.18</v>
+        <v>2233.74</v>
       </c>
       <c r="G19" s="60" t="inlineStr">
         <is>
@@ -1915,74 +1850,74 @@
         </is>
       </c>
       <c r="H19" s="52" t="n">
-        <v>3.56</v>
+        <v>2.23</v>
       </c>
       <c r="I19" s="52" t="n">
-        <v>21.62</v>
+        <v>13.51</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N19" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S19" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T19" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U19" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V19" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W19" s="47" t="n"/>
       <c r="X19" s="47" t="n"/>
       <c r="Y19" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z19" s="47" t="n"/>
       <c r="AA19" s="47" t="n"/>
       <c r="AB19" s="48" t="n"/>
       <c r="AC19" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD19" s="49" t="n"/>
@@ -2002,13 +1937,13 @@
         </is>
       </c>
       <c r="D20" s="52" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E20" s="53" t="n">
         <v>223.82</v>
       </c>
       <c r="F20" s="53" t="n">
-        <v>5371.75</v>
+        <v>3581.18</v>
       </c>
       <c r="G20" s="60" t="inlineStr">
         <is>
@@ -2016,81 +1951,81 @@
         </is>
       </c>
       <c r="H20" s="52" t="n">
-        <v>5.32</v>
+        <v>3.56</v>
       </c>
       <c r="I20" s="52" t="n">
-        <v>32.43</v>
+        <v>21.62</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N20" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S20" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T20" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U20" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V20" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W20" s="47" t="n"/>
       <c r="X20" s="47" t="n"/>
       <c r="Y20" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z20" s="47" t="n"/>
       <c r="AA20" s="47" t="n"/>
       <c r="AB20" s="48" t="n"/>
       <c r="AC20" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD20" s="49" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B21" s="60" t="inlineStr">
         <is>
@@ -2103,13 +2038,13 @@
         </is>
       </c>
       <c r="D21" s="52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E21" s="53" t="n">
-        <v>240.73</v>
+        <v>223.82</v>
       </c>
       <c r="F21" s="53" t="n">
-        <v>1925.84</v>
+        <v>5371.75</v>
       </c>
       <c r="G21" s="60" t="inlineStr">
         <is>
@@ -2117,74 +2052,74 @@
         </is>
       </c>
       <c r="H21" s="52" t="n">
-        <v>1.91</v>
+        <v>5.32</v>
       </c>
       <c r="I21" s="52" t="n">
-        <v>11.69</v>
+        <v>32.43</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N21" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S21" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T21" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U21" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V21" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W21" s="47" t="n"/>
       <c r="X21" s="47" t="n"/>
       <c r="Y21" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z21" s="47" t="n"/>
       <c r="AA21" s="47" t="n"/>
       <c r="AB21" s="48" t="n"/>
       <c r="AC21" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD21" s="49" t="n"/>
@@ -2204,13 +2139,13 @@
         </is>
       </c>
       <c r="D22" s="52" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E22" s="53" t="n">
-        <v>240.8</v>
+        <v>240.73</v>
       </c>
       <c r="F22" s="53" t="n">
-        <v>7705.56</v>
+        <v>1925.84</v>
       </c>
       <c r="G22" s="60" t="inlineStr">
         <is>
@@ -2218,81 +2153,81 @@
         </is>
       </c>
       <c r="H22" s="52" t="n">
-        <v>7.63</v>
+        <v>1.91</v>
       </c>
       <c r="I22" s="52" t="n">
-        <v>46.73</v>
+        <v>11.69</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B23" s="60" t="inlineStr">
         <is>
@@ -2305,13 +2240,13 @@
         </is>
       </c>
       <c r="D23" s="52" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E23" s="53" t="n">
-        <v>254.55</v>
+        <v>240.8</v>
       </c>
       <c r="F23" s="53" t="n">
-        <v>5090.93</v>
+        <v>7705.56</v>
       </c>
       <c r="G23" s="60" t="inlineStr">
         <is>
@@ -2319,81 +2254,81 @@
         </is>
       </c>
       <c r="H23" s="52" t="n">
-        <v>5.05</v>
+        <v>7.63</v>
       </c>
       <c r="I23" s="52" t="n">
-        <v>30.68</v>
+        <v>46.73</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="50" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B24" s="60" t="inlineStr">
         <is>
@@ -2406,13 +2341,13 @@
         </is>
       </c>
       <c r="D24" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E24" s="53" t="n">
-        <v>243.01</v>
+        <v>254.55</v>
       </c>
       <c r="F24" s="53" t="n">
-        <v>9720.58</v>
+        <v>5090.93</v>
       </c>
       <c r="G24" s="60" t="inlineStr">
         <is>
@@ -2420,81 +2355,81 @@
         </is>
       </c>
       <c r="H24" s="52" t="n">
-        <v>9.630000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="I24" s="52" t="n">
-        <v>58.95</v>
+        <v>30.68</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="50" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B25" s="60" t="inlineStr">
         <is>
@@ -2507,13 +2442,13 @@
         </is>
       </c>
       <c r="D25" s="52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E25" s="53" t="n">
-        <v>322.62</v>
+        <v>243.01</v>
       </c>
       <c r="F25" s="53" t="n">
-        <v>3226.25</v>
+        <v>9720.58</v>
       </c>
       <c r="G25" s="60" t="inlineStr">
         <is>
@@ -2521,81 +2456,81 @@
         </is>
       </c>
       <c r="H25" s="52" t="n">
-        <v>3.25</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I25" s="52" t="n">
-        <v>19.5</v>
+        <v>58.95</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="50" t="n">
-        <v>45362</v>
+        <v>45621</v>
       </c>
       <c r="B26" s="60" t="inlineStr">
         <is>
@@ -2604,17 +2539,17 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D26" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="53" t="n">
-        <v>344.79</v>
+        <v>322.62</v>
       </c>
       <c r="F26" s="53" t="n">
-        <v>6895.77</v>
+        <v>3226.25</v>
       </c>
       <c r="G26" s="60" t="inlineStr">
         <is>
@@ -2622,81 +2557,81 @@
         </is>
       </c>
       <c r="H26" s="52" t="n">
-        <v>6.89</v>
+        <v>3.25</v>
       </c>
       <c r="I26" s="52" t="n">
-        <v>41.34</v>
+        <v>19.5</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B27" s="60" t="inlineStr">
         <is>
@@ -2709,13 +2644,13 @@
         </is>
       </c>
       <c r="D27" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E27" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="F27" s="53" t="n">
-        <v>12939.29</v>
+        <v>6895.77</v>
       </c>
       <c r="G27" s="60" t="inlineStr">
         <is>
@@ -2723,81 +2658,81 @@
         </is>
       </c>
       <c r="H27" s="52" t="n">
-        <v>13.24</v>
+        <v>6.89</v>
       </c>
       <c r="I27" s="52" t="n">
-        <v>77.47</v>
+        <v>41.34</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="50" t="n">
-        <v>45282</v>
+        <v>45358</v>
       </c>
       <c r="B28" s="60" t="inlineStr">
         <is>
@@ -2806,17 +2741,17 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E28" s="53" t="n">
-        <v>237.27</v>
+        <v>323.48</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>1660.92</v>
+        <v>12939.29</v>
       </c>
       <c r="G28" s="60" t="inlineStr">
         <is>
@@ -2824,93 +2759,77 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>1.65</v>
+        <v>13.24</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>10.07</v>
+        <v>77.47</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K28" s="47" t="n"/>
-      <c r="L28" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="56">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="55" t="n"/>
-      <c r="P28" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="55" t="n"/>
-      <c r="T28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W28" s="53" t="n">
-        <v>344.79</v>
-      </c>
-      <c r="X28" s="50" t="n">
-        <v>45362</v>
-      </c>
+      <c r="K28" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S28" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T28" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U28" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V28" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W28" s="47" t="n"/>
+      <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z28" s="57">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA28" s="57">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB28" s="58">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="47" t="n"/>
+      <c r="AA28" s="47" t="n"/>
+      <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
-      <c r="AE28" s="59" t="n"/>
-      <c r="AF28" s="59" t="n"/>
-      <c r="AG28" s="59" t="n"/>
-      <c r="AH28" s="59" t="n"/>
-      <c r="AI28" s="59" t="n"/>
-      <c r="AJ28" s="59" t="n"/>
-      <c r="AK28" s="59" t="n"/>
-      <c r="AL28" s="59" t="n"/>
-      <c r="AM28" s="59" t="n"/>
-      <c r="AN28" s="59" t="n"/>
-      <c r="AO28" s="59" t="n"/>
-      <c r="AP28" s="59" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="50" t="n">
@@ -2927,13 +2846,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>1423.63</v>
+        <v>1660.92</v>
       </c>
       <c r="G29" s="60" t="inlineStr">
         <is>
@@ -2941,10 +2860,10 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>8.619999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
@@ -2952,41 +2871,41 @@
       </c>
       <c r="K29" s="47" t="n"/>
       <c r="L29" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N29" s="56">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O29" s="55" t="n"/>
       <c r="P29" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S29" s="55" t="n"/>
       <c r="T29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W29" s="53" t="n">
@@ -2996,23 +2915,23 @@
         <v>45362</v>
       </c>
       <c r="Y29" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z29" s="57">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA29" s="57">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB29" s="58">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC29" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
@@ -3044,13 +2963,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>711.8200000000001</v>
+        <v>1423.63</v>
       </c>
       <c r="G30" s="60" t="inlineStr">
         <is>
@@ -3058,10 +2977,10 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>4.31</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
@@ -3069,41 +2988,41 @@
       </c>
       <c r="K30" s="47" t="n"/>
       <c r="L30" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N30" s="56">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O30" s="55" t="n"/>
       <c r="P30" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S30" s="55" t="n"/>
       <c r="T30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W30" s="53" t="n">
@@ -3113,23 +3032,23 @@
         <v>45362</v>
       </c>
       <c r="Y30" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z30" s="57">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA30" s="57">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB30" s="58">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC30" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
@@ -3161,13 +3080,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>949.0700000000001</v>
+        <v>711.8200000000001</v>
       </c>
       <c r="G31" s="60" t="inlineStr">
         <is>
@@ -3175,10 +3094,10 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>5.73</v>
+        <v>4.31</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
@@ -3186,41 +3105,41 @@
       </c>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N31" s="56">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O31" s="55" t="n"/>
       <c r="P31" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S31" s="55" t="n"/>
       <c r="T31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
         <v/>
       </c>
       <c r="U31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W31" s="53" t="n">
@@ -3230,23 +3149,23 @@
         <v>45362</v>
       </c>
       <c r="Y31" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z31" s="57">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA31" s="57">
-        <f>((E21*D21)+Z21)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB31" s="58">
-        <f>D21</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC31" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
@@ -3265,7 +3184,7 @@
     </row>
     <row r="32">
       <c r="A32" s="50" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B32" s="60" t="inlineStr">
         <is>
@@ -3278,13 +3197,13 @@
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E32" s="53" t="n">
-        <v>243.71</v>
+        <v>237.27</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>4386.85</v>
+        <v>949.0700000000001</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
@@ -3292,10 +3211,10 @@
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>4.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>26.5</v>
+        <v>5.73</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
@@ -3303,67 +3222,67 @@
       </c>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N32" s="56">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O32" s="55" t="n"/>
       <c r="P32" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S32" s="55" t="n"/>
       <c r="T32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
         <v/>
       </c>
       <c r="U32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W32" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="X32" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="Y32" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z32" s="57">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
         <v/>
       </c>
       <c r="AA32" s="57">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E21*D21)+Z21)</f>
         <v/>
       </c>
       <c r="AB32" s="58">
-        <f>D22</f>
+        <f>D21</f>
         <v/>
       </c>
       <c r="AC32" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -3382,7 +3301,7 @@
     </row>
     <row r="33">
       <c r="A33" s="50" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B33" s="60" t="inlineStr">
         <is>
@@ -3395,13 +3314,13 @@
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="53" t="n">
-        <v>228.11</v>
+        <v>243.71</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>2281.06</v>
+        <v>4386.85</v>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
@@ -3409,10 +3328,10 @@
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>2.27</v>
+        <v>4.35</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>13.79</v>
+        <v>26.5</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
@@ -3420,41 +3339,41 @@
       </c>
       <c r="K33" s="47" t="n"/>
       <c r="L33" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N33" s="56">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O33" s="55" t="n"/>
       <c r="P33" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S33" s="55" t="n"/>
       <c r="T33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
         <v/>
       </c>
       <c r="U33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W33" s="53" t="n">
@@ -3464,23 +3383,23 @@
         <v>45358</v>
       </c>
       <c r="Y33" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z33" s="57">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
         <v/>
       </c>
       <c r="AA33" s="57">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E22*D22)+Z22)</f>
         <v/>
       </c>
       <c r="AB33" s="58">
-        <f>D23</f>
+        <f>D22</f>
         <v/>
       </c>
       <c r="AC33" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
@@ -3499,33 +3418,37 @@
     </row>
     <row r="34">
       <c r="A34" s="50" t="n">
-        <v>45127</v>
-      </c>
-      <c r="B34" s="60" t="n"/>
+        <v>45258</v>
+      </c>
+      <c r="B34" s="60" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
       <c r="D34" s="52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" s="53" t="n">
-        <v>115.22</v>
+        <v>228.11</v>
       </c>
       <c r="F34" s="53" t="n">
-        <v>1382.62</v>
+        <v>2281.06</v>
       </c>
       <c r="G34" s="60" t="inlineStr">
         <is>
-          <t>Price derived from purchase price of corresponding RIL Shares</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H34" s="52" t="n">
-        <v>1.37</v>
+        <v>2.27</v>
       </c>
       <c r="I34" s="52" t="n">
-        <v>8.359999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
@@ -3533,41 +3456,41 @@
       </c>
       <c r="K34" s="47" t="n"/>
       <c r="L34" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N34" s="56">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O34" s="55" t="n"/>
       <c r="P34" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S34" s="55" t="n"/>
       <c r="T34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W34" s="53" t="n">
@@ -3577,23 +3500,23 @@
         <v>45358</v>
       </c>
       <c r="Y34" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z34" s="57">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
         <v/>
       </c>
       <c r="AA34" s="57">
-        <f>((E24*D24)+Z24)</f>
+        <f>((E23*D23)+Z23)</f>
         <v/>
       </c>
       <c r="AB34" s="58">
-        <f>D24</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="AC34" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
@@ -3611,20 +3534,117 @@
       <c r="AP34" s="59" t="n"/>
     </row>
     <row r="35">
-      <c r="E35" s="61" t="n"/>
-      <c r="F35" s="61" t="n"/>
-      <c r="G35" s="62" t="n"/>
-      <c r="J35" s="61" t="n"/>
-      <c r="K35" s="61" t="n"/>
-      <c r="L35" s="61" t="n"/>
-      <c r="M35" s="64" t="n"/>
-      <c r="W35" s="61" t="n"/>
-      <c r="X35" s="61" t="n"/>
-      <c r="Y35" s="61" t="n"/>
-      <c r="Z35" s="61" t="n"/>
-      <c r="AA35" s="61" t="n"/>
-      <c r="AB35" s="61" t="n"/>
-      <c r="AC35" s="61" t="n"/>
+      <c r="A35" s="50" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B35" s="60" t="n"/>
+      <c r="C35" s="60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E35" s="53" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="F35" s="53" t="n">
+        <v>1382.62</v>
+      </c>
+      <c r="G35" s="60" t="inlineStr">
+        <is>
+          <t>Price derived from purchase price of corresponding RIL Shares</t>
+        </is>
+      </c>
+      <c r="H35" s="52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I35" s="52" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J35" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K35" s="47" t="n"/>
+      <c r="L35" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="56">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="55" t="n"/>
+      <c r="P35" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S35" s="55" t="n"/>
+      <c r="T35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <v/>
+      </c>
+      <c r="U35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W35" s="53" t="n">
+        <v>323.48</v>
+      </c>
+      <c r="X35" s="50" t="n">
+        <v>45358</v>
+      </c>
+      <c r="Y35" s="46">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z35" s="57">
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="57">
+        <f>((E24*D24)+Z24)</f>
+        <v/>
+      </c>
+      <c r="AB35" s="58">
+        <f>D24</f>
+        <v/>
+      </c>
+      <c r="AC35" s="44">
+        <f>if(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD35" s="49" t="n"/>
+      <c r="AE35" s="59" t="n"/>
+      <c r="AF35" s="59" t="n"/>
+      <c r="AG35" s="59" t="n"/>
+      <c r="AH35" s="59" t="n"/>
+      <c r="AI35" s="59" t="n"/>
+      <c r="AJ35" s="59" t="n"/>
+      <c r="AK35" s="59" t="n"/>
+      <c r="AL35" s="59" t="n"/>
+      <c r="AM35" s="59" t="n"/>
+      <c r="AN35" s="59" t="n"/>
+      <c r="AO35" s="59" t="n"/>
+      <c r="AP35" s="59" t="n"/>
     </row>
     <row r="36">
       <c r="E36" s="61" t="n"/>
@@ -18593,6 +18613,7 @@
       <c r="J971" s="61" t="n"/>
       <c r="K971" s="61" t="n"/>
       <c r="L971" s="61" t="n"/>
+      <c r="M971" s="64" t="n"/>
       <c r="W971" s="61" t="n"/>
       <c r="X971" s="61" t="n"/>
       <c r="Y971" s="61" t="n"/>
@@ -18840,6 +18861,21 @@
       <c r="AA987" s="61" t="n"/>
       <c r="AB987" s="61" t="n"/>
       <c r="AC987" s="61" t="n"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="61" t="n"/>
+      <c r="F988" s="61" t="n"/>
+      <c r="G988" s="62" t="n"/>
+      <c r="J988" s="61" t="n"/>
+      <c r="K988" s="61" t="n"/>
+      <c r="L988" s="61" t="n"/>
+      <c r="W988" s="61" t="n"/>
+      <c r="X988" s="61" t="n"/>
+      <c r="Y988" s="61" t="n"/>
+      <c r="Z988" s="61" t="n"/>
+      <c r="AA988" s="61" t="n"/>
+      <c r="AB988" s="61" t="n"/>
+      <c r="AC988" s="61" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Jio Financial Services Ltd.xlsx
+++ b/dumps/Stocks/Jio Financial Services Ltd.xlsx
@@ -774,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP986"/>
+  <dimension ref="A1:AP987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1124,11 +1124,11 @@
     </row>
     <row r="5">
       <c r="A5" s="95" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1140,18 +1140,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>271.8</v>
+        <v>270.35</v>
       </c>
       <c r="F5" t="n">
-        <v>2731.6</v>
+        <v>2717</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1160,11 +1160,11 @@
     </row>
     <row r="6">
       <c r="A6" s="95" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1176,18 +1176,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>267.25</v>
+        <v>271.8</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2685.9</v>
+        <v>2731.6</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="7">
       <c r="A7" s="95" t="n">
-        <v>46015</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1212,18 +1212,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>300.85</v>
+        <v>267.25</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3023.5</v>
+        <v>2685.9</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>15</v>
+        <v>13.4</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="8">
       <c r="A8" s="95" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1248,14 +1248,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>299.2</v>
+        <v>300.85</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3007</v>
+        <v>3023.5</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
@@ -1268,11 +1268,11 @@
     </row>
     <row r="9">
       <c r="A9" s="95" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1284,18 +1284,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>290.6</v>
+        <v>299.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2920.5</v>
+        <v>3007</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="10">
       <c r="A10" s="95" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1320,18 +1320,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>293.05</v>
+        <v>290.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2945.2</v>
+        <v>2920.5</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1340,11 +1340,11 @@
     </row>
     <row r="11">
       <c r="A11" s="95" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1356,18 +1356,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>295.65</v>
+        <v>293.05</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2971.3</v>
+        <v>2945.2</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="12">
       <c r="A12" s="95" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1392,18 +1392,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>314</v>
+        <v>295.65</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3155.7</v>
+        <v>2971.3</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="13">
       <c r="A13" s="95" t="n">
-        <v>45968</v>
+        <v>45978</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1428,132 +1428,67 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3155.7</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608260909</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J13" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="95" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>295.4</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>2968.8</v>
       </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>CN#252607899666</t>
         </is>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>14.8</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J14" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="38" t="n">
+    <row r="15">
+      <c r="A15" s="38" t="n">
         <v>45880</v>
       </c>
-      <c r="B14" s="39" t="inlineStr">
+      <c r="B15" s="39" t="inlineStr">
         <is>
           <t>DIV</t>
-        </is>
-      </c>
-      <c r="C14" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D14" s="40" t="n">
-        <v>180</v>
-      </c>
-      <c r="E14" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="41" t="n">
-        <v>90</v>
-      </c>
-      <c r="G14" s="39" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H14" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K14" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N14" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O14" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R14" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S14" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T14" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U14" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V14" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W14" s="47" t="n"/>
-      <c r="X14" s="47" t="n"/>
-      <c r="Y14" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="47" t="n"/>
-      <c r="AA14" s="47" t="n"/>
-      <c r="AB14" s="48" t="n"/>
-      <c r="AC14" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD14" s="49" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B15" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -1562,195 +1497,196 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>287.88</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="41" t="n">
-        <v>2878.79</v>
+        <v>90</v>
       </c>
       <c r="G15" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
       <c r="H15" s="40" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I15" s="40" t="n">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N15" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R15" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S15" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T15" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U15" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V15" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W15" s="47" t="n"/>
       <c r="X15" s="47" t="n"/>
       <c r="Y15" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z15" s="47" t="n"/>
       <c r="AA15" s="47" t="n"/>
       <c r="AB15" s="48" t="n"/>
       <c r="AC15" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD15" s="49" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B16" s="60" t="inlineStr">
+      <c r="A16" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B16" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C16" s="60" t="inlineStr">
+      <c r="C16" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D16" s="52" t="n">
+      <c r="D16" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="53" t="n">
-        <v>223.76</v>
-      </c>
-      <c r="F16" s="54">
-        <f>E7*D7 + sum(H7:I7)</f>
-        <v/>
-      </c>
-      <c r="G16" s="60" t="inlineStr">
+      <c r="E16" s="41" t="n">
+        <v>287.88</v>
+      </c>
+      <c r="F16" s="41" t="n">
+        <v>2878.79</v>
+      </c>
+      <c r="G16" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H16" s="52" t="n"/>
-      <c r="I16" s="52" t="n">
-        <v>15.75</v>
+      <c r="H16" s="40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I16" s="40" t="n">
+        <v>17.43</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N16" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R16" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S16" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T16" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U16" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V16" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W16" s="47" t="n"/>
       <c r="X16" s="47" t="n"/>
       <c r="Y16" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z16" s="47" t="n"/>
       <c r="AA16" s="47" t="n"/>
       <c r="AB16" s="48" t="n"/>
       <c r="AC16" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD16" s="49" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B17" s="60" t="inlineStr">
         <is>
@@ -1766,92 +1702,91 @@
         <v>10</v>
       </c>
       <c r="E17" s="53" t="n">
-        <v>223.37</v>
-      </c>
-      <c r="F17" s="53" t="n">
-        <v>2233.74</v>
+        <v>223.76</v>
+      </c>
+      <c r="F17" s="54">
+        <f>E7*D7 + sum(H7:I7)</f>
+        <v/>
       </c>
       <c r="G17" s="60" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H17" s="52" t="n">
-        <v>2.23</v>
-      </c>
+      <c r="H17" s="52" t="n"/>
       <c r="I17" s="52" t="n">
-        <v>13.51</v>
+        <v>15.75</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N17" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R17" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S17" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T17" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U17" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V17" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W17" s="47" t="n"/>
       <c r="X17" s="47" t="n"/>
       <c r="Y17" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z17" s="47" t="n"/>
       <c r="AA17" s="47" t="n"/>
       <c r="AB17" s="48" t="n"/>
       <c r="AC17" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD17" s="49" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="50" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B18" s="60" t="inlineStr">
         <is>
@@ -1864,13 +1799,13 @@
         </is>
       </c>
       <c r="D18" s="52" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="53" t="n">
-        <v>223.82</v>
+        <v>223.37</v>
       </c>
       <c r="F18" s="53" t="n">
-        <v>3581.18</v>
+        <v>2233.74</v>
       </c>
       <c r="G18" s="60" t="inlineStr">
         <is>
@@ -1878,74 +1813,74 @@
         </is>
       </c>
       <c r="H18" s="52" t="n">
-        <v>3.56</v>
+        <v>2.23</v>
       </c>
       <c r="I18" s="52" t="n">
-        <v>21.62</v>
+        <v>13.51</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N18" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R18" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S18" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T18" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U18" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V18" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W18" s="47" t="n"/>
       <c r="X18" s="47" t="n"/>
       <c r="Y18" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z18" s="47" t="n"/>
       <c r="AA18" s="47" t="n"/>
       <c r="AB18" s="48" t="n"/>
       <c r="AC18" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD18" s="49" t="n"/>
@@ -1965,13 +1900,13 @@
         </is>
       </c>
       <c r="D19" s="52" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E19" s="53" t="n">
         <v>223.82</v>
       </c>
       <c r="F19" s="53" t="n">
-        <v>5371.75</v>
+        <v>3581.18</v>
       </c>
       <c r="G19" s="60" t="inlineStr">
         <is>
@@ -1979,81 +1914,81 @@
         </is>
       </c>
       <c r="H19" s="52" t="n">
-        <v>5.32</v>
+        <v>3.56</v>
       </c>
       <c r="I19" s="52" t="n">
-        <v>32.43</v>
+        <v>21.62</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N19" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R19" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S19" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T19" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U19" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V19" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W19" s="47" t="n"/>
       <c r="X19" s="47" t="n"/>
       <c r="Y19" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z19" s="47" t="n"/>
       <c r="AA19" s="47" t="n"/>
       <c r="AB19" s="48" t="n"/>
       <c r="AC19" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD19" s="49" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B20" s="60" t="inlineStr">
         <is>
@@ -2066,13 +2001,13 @@
         </is>
       </c>
       <c r="D20" s="52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E20" s="53" t="n">
-        <v>240.73</v>
+        <v>223.82</v>
       </c>
       <c r="F20" s="53" t="n">
-        <v>1925.84</v>
+        <v>5371.75</v>
       </c>
       <c r="G20" s="60" t="inlineStr">
         <is>
@@ -2080,74 +2015,74 @@
         </is>
       </c>
       <c r="H20" s="52" t="n">
-        <v>1.91</v>
+        <v>5.32</v>
       </c>
       <c r="I20" s="52" t="n">
-        <v>11.69</v>
+        <v>32.43</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N20" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R20" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S20" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T20" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U20" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V20" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W20" s="47" t="n"/>
       <c r="X20" s="47" t="n"/>
       <c r="Y20" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z20" s="47" t="n"/>
       <c r="AA20" s="47" t="n"/>
       <c r="AB20" s="48" t="n"/>
       <c r="AC20" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD20" s="49" t="n"/>
@@ -2167,13 +2102,13 @@
         </is>
       </c>
       <c r="D21" s="52" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E21" s="53" t="n">
-        <v>240.8</v>
+        <v>240.73</v>
       </c>
       <c r="F21" s="53" t="n">
-        <v>7705.56</v>
+        <v>1925.84</v>
       </c>
       <c r="G21" s="60" t="inlineStr">
         <is>
@@ -2181,81 +2116,81 @@
         </is>
       </c>
       <c r="H21" s="52" t="n">
-        <v>7.63</v>
+        <v>1.91</v>
       </c>
       <c r="I21" s="52" t="n">
-        <v>46.73</v>
+        <v>11.69</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N21" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R21" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S21" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T21" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U21" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V21" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W21" s="47" t="n"/>
       <c r="X21" s="47" t="n"/>
       <c r="Y21" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z21" s="47" t="n"/>
       <c r="AA21" s="47" t="n"/>
       <c r="AB21" s="48" t="n"/>
       <c r="AC21" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD21" s="49" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B22" s="60" t="inlineStr">
         <is>
@@ -2268,13 +2203,13 @@
         </is>
       </c>
       <c r="D22" s="52" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E22" s="53" t="n">
-        <v>254.55</v>
+        <v>240.8</v>
       </c>
       <c r="F22" s="53" t="n">
-        <v>5090.93</v>
+        <v>7705.56</v>
       </c>
       <c r="G22" s="60" t="inlineStr">
         <is>
@@ -2282,81 +2217,81 @@
         </is>
       </c>
       <c r="H22" s="52" t="n">
-        <v>5.05</v>
+        <v>7.63</v>
       </c>
       <c r="I22" s="52" t="n">
-        <v>30.68</v>
+        <v>46.73</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="50" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B23" s="60" t="inlineStr">
         <is>
@@ -2369,13 +2304,13 @@
         </is>
       </c>
       <c r="D23" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E23" s="53" t="n">
-        <v>243.01</v>
+        <v>254.55</v>
       </c>
       <c r="F23" s="53" t="n">
-        <v>9720.58</v>
+        <v>5090.93</v>
       </c>
       <c r="G23" s="60" t="inlineStr">
         <is>
@@ -2383,81 +2318,81 @@
         </is>
       </c>
       <c r="H23" s="52" t="n">
-        <v>9.630000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="I23" s="52" t="n">
-        <v>58.95</v>
+        <v>30.68</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="50" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B24" s="60" t="inlineStr">
         <is>
@@ -2470,13 +2405,13 @@
         </is>
       </c>
       <c r="D24" s="52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E24" s="53" t="n">
-        <v>322.62</v>
+        <v>243.01</v>
       </c>
       <c r="F24" s="53" t="n">
-        <v>3226.25</v>
+        <v>9720.58</v>
       </c>
       <c r="G24" s="60" t="inlineStr">
         <is>
@@ -2484,81 +2419,81 @@
         </is>
       </c>
       <c r="H24" s="52" t="n">
-        <v>3.25</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I24" s="52" t="n">
-        <v>19.5</v>
+        <v>58.95</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="50" t="n">
-        <v>45362</v>
+        <v>45621</v>
       </c>
       <c r="B25" s="60" t="inlineStr">
         <is>
@@ -2567,17 +2502,17 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D25" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" s="53" t="n">
-        <v>344.79</v>
+        <v>322.62</v>
       </c>
       <c r="F25" s="53" t="n">
-        <v>6895.77</v>
+        <v>3226.25</v>
       </c>
       <c r="G25" s="60" t="inlineStr">
         <is>
@@ -2585,81 +2520,81 @@
         </is>
       </c>
       <c r="H25" s="52" t="n">
-        <v>6.89</v>
+        <v>3.25</v>
       </c>
       <c r="I25" s="52" t="n">
-        <v>41.34</v>
+        <v>19.5</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B26" s="60" t="inlineStr">
         <is>
@@ -2672,13 +2607,13 @@
         </is>
       </c>
       <c r="D26" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E26" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="F26" s="53" t="n">
-        <v>12939.29</v>
+        <v>6895.77</v>
       </c>
       <c r="G26" s="60" t="inlineStr">
         <is>
@@ -2686,81 +2621,81 @@
         </is>
       </c>
       <c r="H26" s="52" t="n">
-        <v>13.24</v>
+        <v>6.89</v>
       </c>
       <c r="I26" s="52" t="n">
-        <v>77.47</v>
+        <v>41.34</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="50" t="n">
-        <v>45282</v>
+        <v>45358</v>
       </c>
       <c r="B27" s="60" t="inlineStr">
         <is>
@@ -2769,17 +2704,17 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D27" s="52" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E27" s="53" t="n">
-        <v>237.27</v>
+        <v>323.48</v>
       </c>
       <c r="F27" s="53" t="n">
-        <v>1660.92</v>
+        <v>12939.29</v>
       </c>
       <c r="G27" s="60" t="inlineStr">
         <is>
@@ -2787,89 +2722,77 @@
         </is>
       </c>
       <c r="H27" s="52" t="n">
-        <v>1.65</v>
+        <v>13.24</v>
       </c>
       <c r="I27" s="52" t="n">
-        <v>10.07</v>
+        <v>77.47</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K27" s="47" t="n"/>
-      <c r="L27" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="56">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="55" t="n"/>
-      <c r="P27" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="55" t="n"/>
-      <c r="T27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="53" t="n">
-        <v>344.79</v>
-      </c>
-      <c r="X27" s="50" t="n">
-        <v>45362</v>
-      </c>
-      <c r="Y27" s="46" t="n">
-        <v>0.4436717046</v>
-      </c>
-      <c r="Z27" s="57" t="n">
-        <v>742.10304</v>
-      </c>
-      <c r="AA27" s="57" t="n">
-        <v>2402.99304</v>
-      </c>
-      <c r="AB27" s="58" t="n">
-        <v>7</v>
-      </c>
+      <c r="K27" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N27" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O27" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R27" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S27" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T27" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U27" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V27" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W27" s="47" t="n"/>
+      <c r="X27" s="47" t="n"/>
+      <c r="Y27" s="46">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="47" t="n"/>
+      <c r="AA27" s="47" t="n"/>
+      <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
-      <c r="AE27" s="59" t="n"/>
-      <c r="AF27" s="59" t="n"/>
-      <c r="AG27" s="59" t="n"/>
-      <c r="AH27" s="59" t="n"/>
-      <c r="AI27" s="59" t="n"/>
-      <c r="AJ27" s="59" t="n"/>
-      <c r="AK27" s="59" t="n"/>
-      <c r="AL27" s="59" t="n"/>
-      <c r="AM27" s="59" t="n"/>
-      <c r="AN27" s="59" t="n"/>
-      <c r="AO27" s="59" t="n"/>
-      <c r="AP27" s="59" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="50" t="n">
@@ -2886,13 +2809,13 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>1423.63</v>
+        <v>1660.92</v>
       </c>
       <c r="G28" s="60" t="inlineStr">
         <is>
@@ -2900,10 +2823,10 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>8.619999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
@@ -2911,41 +2834,41 @@
       </c>
       <c r="K28" s="47" t="n"/>
       <c r="L28" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N28" s="56">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O28" s="55" t="n"/>
       <c r="P28" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S28" s="55" t="n"/>
       <c r="T28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V28" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W28" s="53" t="n">
@@ -2955,19 +2878,19 @@
         <v>45362</v>
       </c>
       <c r="Y28" s="46" t="n">
-        <v>0.4436814307</v>
+        <v>0.4436717046</v>
       </c>
       <c r="Z28" s="57" t="n">
-        <v>636.08832</v>
+        <v>742.10304</v>
       </c>
       <c r="AA28" s="57" t="n">
-        <v>2059.70832</v>
+        <v>2402.99304</v>
       </c>
       <c r="AB28" s="58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC28" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
@@ -2999,13 +2922,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>711.8200000000001</v>
+        <v>1423.63</v>
       </c>
       <c r="G29" s="60" t="inlineStr">
         <is>
@@ -3013,10 +2936,10 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>4.31</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
@@ -3024,41 +2947,41 @@
       </c>
       <c r="K29" s="47" t="n"/>
       <c r="L29" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N29" s="56">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O29" s="55" t="n"/>
       <c r="P29" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S29" s="55" t="n"/>
       <c r="T29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V29" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W29" s="53" t="n">
@@ -3068,19 +2991,19 @@
         <v>45362</v>
       </c>
       <c r="Y29" s="46" t="n">
-        <v>0.4436752413</v>
+        <v>0.4436814307</v>
       </c>
       <c r="Z29" s="57" t="n">
-        <v>318.04416</v>
+        <v>636.08832</v>
       </c>
       <c r="AA29" s="57" t="n">
-        <v>1029.85416</v>
+        <v>2059.70832</v>
       </c>
       <c r="AB29" s="58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC29" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
@@ -3112,13 +3035,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>949.0700000000001</v>
+        <v>711.8200000000001</v>
       </c>
       <c r="G30" s="60" t="inlineStr">
         <is>
@@ -3126,10 +3049,10 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>5.73</v>
+        <v>4.31</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
@@ -3137,41 +3060,41 @@
       </c>
       <c r="K30" s="47" t="n"/>
       <c r="L30" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N30" s="56">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O30" s="55" t="n"/>
       <c r="P30" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S30" s="55" t="n"/>
       <c r="T30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
         <v/>
       </c>
       <c r="U30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V30" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W30" s="53" t="n">
@@ -3181,19 +3104,19 @@
         <v>45362</v>
       </c>
       <c r="Y30" s="46" t="n">
-        <v>0.443696905</v>
+        <v>0.4436752413</v>
       </c>
       <c r="Z30" s="57" t="n">
-        <v>424.05888</v>
+        <v>318.04416</v>
       </c>
       <c r="AA30" s="57" t="n">
-        <v>1373.13888</v>
+        <v>1029.85416</v>
       </c>
       <c r="AB30" s="58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC30" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
@@ -3212,7 +3135,7 @@
     </row>
     <row r="31">
       <c r="A31" s="50" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B31" s="60" t="inlineStr">
         <is>
@@ -3225,13 +3148,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E31" s="53" t="n">
-        <v>243.71</v>
+        <v>237.27</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>4386.85</v>
+        <v>949.0700000000001</v>
       </c>
       <c r="G31" s="60" t="inlineStr">
         <is>
@@ -3239,10 +3162,10 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>4.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>26.5</v>
+        <v>5.73</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
@@ -3250,63 +3173,63 @@
       </c>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N31" s="56">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O31" s="55" t="n"/>
       <c r="P31" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S31" s="55" t="n"/>
       <c r="T31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
         <v/>
       </c>
       <c r="U31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V31" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W31" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="X31" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="Y31" s="46" t="n">
-        <v>0.3204739933</v>
+        <v>0.443696905</v>
       </c>
       <c r="Z31" s="57" t="n">
-        <v>1415.75796</v>
+        <v>424.05888</v>
       </c>
       <c r="AA31" s="57" t="n">
-        <v>5802.53796</v>
+        <v>1373.13888</v>
       </c>
       <c r="AB31" s="58" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AC31" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
@@ -3325,7 +3248,7 @@
     </row>
     <row r="32">
       <c r="A32" s="50" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B32" s="60" t="inlineStr">
         <is>
@@ -3338,13 +3261,13 @@
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E32" s="53" t="n">
-        <v>228.11</v>
+        <v>243.71</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>2281.06</v>
+        <v>4386.85</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
@@ -3352,10 +3275,10 @@
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>2.27</v>
+        <v>4.35</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>13.79</v>
+        <v>26.5</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
@@ -3363,41 +3286,41 @@
       </c>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N32" s="56">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O32" s="55" t="n"/>
       <c r="P32" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S32" s="55" t="n"/>
       <c r="T32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
         <v/>
       </c>
       <c r="U32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V32" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W32" s="53" t="n">
@@ -3407,19 +3330,19 @@
         <v>45358</v>
       </c>
       <c r="Y32" s="46" t="n">
-        <v>0.4093596329</v>
+        <v>0.3204739933</v>
       </c>
       <c r="Z32" s="57" t="n">
-        <v>940.3482</v>
+        <v>1415.75796</v>
       </c>
       <c r="AA32" s="57" t="n">
-        <v>3221.4482</v>
+        <v>5802.53796</v>
       </c>
       <c r="AB32" s="58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC32" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -3438,33 +3361,37 @@
     </row>
     <row r="33">
       <c r="A33" s="50" t="n">
-        <v>45127</v>
-      </c>
-      <c r="B33" s="60" t="n"/>
+        <v>45258</v>
+      </c>
+      <c r="B33" s="60" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="53" t="n">
-        <v>115.22</v>
+        <v>228.11</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>1382.62</v>
+        <v>2281.06</v>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
-          <t>Price derived from purchase price of corresponding RIL Shares</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>1.37</v>
+        <v>2.27</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>8.359999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
@@ -3472,41 +3399,41 @@
       </c>
       <c r="K33" s="47" t="n"/>
       <c r="L33" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N33" s="56">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O33" s="55" t="n"/>
       <c r="P33" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S33" s="55" t="n"/>
       <c r="T33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V33" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W33" s="53" t="n">
@@ -3516,19 +3443,19 @@
         <v>45358</v>
       </c>
       <c r="Y33" s="46" t="n">
-        <v>1.769765016</v>
+        <v>0.4093596329</v>
       </c>
       <c r="Z33" s="57" t="n">
-        <v>2464.13232</v>
+        <v>940.3482</v>
       </c>
       <c r="AA33" s="57" t="n">
-        <v>3846.77232</v>
+        <v>3221.4482</v>
       </c>
       <c r="AB33" s="58" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC33" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
@@ -3546,20 +3473,113 @@
       <c r="AP33" s="59" t="n"/>
     </row>
     <row r="34">
-      <c r="E34" s="61" t="n"/>
-      <c r="F34" s="61" t="n"/>
-      <c r="G34" s="62" t="n"/>
-      <c r="J34" s="61" t="n"/>
-      <c r="K34" s="61" t="n"/>
-      <c r="L34" s="61" t="n"/>
-      <c r="M34" s="64" t="n"/>
-      <c r="W34" s="61" t="n"/>
-      <c r="X34" s="61" t="n"/>
-      <c r="Y34" s="61" t="n"/>
-      <c r="Z34" s="61" t="n"/>
-      <c r="AA34" s="61" t="n"/>
-      <c r="AB34" s="61" t="n"/>
-      <c r="AC34" s="61" t="n"/>
+      <c r="A34" s="50" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B34" s="60" t="n"/>
+      <c r="C34" s="60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E34" s="53" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="F34" s="53" t="n">
+        <v>1382.62</v>
+      </c>
+      <c r="G34" s="60" t="inlineStr">
+        <is>
+          <t>Price derived from purchase price of corresponding RIL Shares</t>
+        </is>
+      </c>
+      <c r="H34" s="52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I34" s="52" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J34" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="47" t="n"/>
+      <c r="L34" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="56">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="55" t="n"/>
+      <c r="P34" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="55" t="n"/>
+      <c r="T34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="53" t="n">
+        <v>323.48</v>
+      </c>
+      <c r="X34" s="50" t="n">
+        <v>45358</v>
+      </c>
+      <c r="Y34" s="46" t="n">
+        <v>1.769765016</v>
+      </c>
+      <c r="Z34" s="57" t="n">
+        <v>2464.13232</v>
+      </c>
+      <c r="AA34" s="57" t="n">
+        <v>3846.77232</v>
+      </c>
+      <c r="AB34" s="58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC34" s="44">
+        <f>if(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="49" t="n"/>
+      <c r="AE34" s="59" t="n"/>
+      <c r="AF34" s="59" t="n"/>
+      <c r="AG34" s="59" t="n"/>
+      <c r="AH34" s="59" t="n"/>
+      <c r="AI34" s="59" t="n"/>
+      <c r="AJ34" s="59" t="n"/>
+      <c r="AK34" s="59" t="n"/>
+      <c r="AL34" s="59" t="n"/>
+      <c r="AM34" s="59" t="n"/>
+      <c r="AN34" s="59" t="n"/>
+      <c r="AO34" s="59" t="n"/>
+      <c r="AP34" s="59" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="61" t="n"/>
@@ -18528,6 +18548,7 @@
       <c r="J970" s="61" t="n"/>
       <c r="K970" s="61" t="n"/>
       <c r="L970" s="61" t="n"/>
+      <c r="M970" s="64" t="n"/>
       <c r="W970" s="61" t="n"/>
       <c r="X970" s="61" t="n"/>
       <c r="Y970" s="61" t="n"/>
@@ -18775,6 +18796,21 @@
       <c r="AA986" s="61" t="n"/>
       <c r="AB986" s="61" t="n"/>
       <c r="AC986" s="61" t="n"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="61" t="n"/>
+      <c r="F987" s="61" t="n"/>
+      <c r="G987" s="62" t="n"/>
+      <c r="J987" s="61" t="n"/>
+      <c r="K987" s="61" t="n"/>
+      <c r="L987" s="61" t="n"/>
+      <c r="W987" s="61" t="n"/>
+      <c r="X987" s="61" t="n"/>
+      <c r="Y987" s="61" t="n"/>
+      <c r="Z987" s="61" t="n"/>
+      <c r="AA987" s="61" t="n"/>
+      <c r="AB987" s="61" t="n"/>
+      <c r="AC987" s="61" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Jio Financial Services Ltd.xlsx
+++ b/dumps/Stocks/Jio Financial Services Ltd.xlsx
@@ -774,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP987"/>
+  <dimension ref="A1:AP988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="5">
       <c r="A5" s="95" t="n">
-        <v>46062</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1140,18 +1140,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>270.35</v>
+        <v>262.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2717</v>
+        <v>2644.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>2.642</v>
+      </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>15.8603</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1160,11 +1163,11 @@
     </row>
     <row r="6">
       <c r="A6" s="95" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1176,18 +1179,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>271.8</v>
+        <v>270.35</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2731.6</v>
+        <v>2717</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1196,11 +1199,11 @@
     </row>
     <row r="7">
       <c r="A7" s="95" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1212,18 +1215,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>267.25</v>
+        <v>271.8</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2685.9</v>
+        <v>2731.6</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="8">
       <c r="A8" s="95" t="n">
-        <v>46015</v>
+        <v>46059</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1248,18 +1251,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>300.85</v>
+        <v>267.25</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3023.5</v>
+        <v>2685.9</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>15</v>
+        <v>13.4</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="9">
       <c r="A9" s="95" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1284,14 +1287,14 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>299.2</v>
+        <v>300.85</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3007</v>
+        <v>3023.5</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
@@ -1304,11 +1307,11 @@
     </row>
     <row r="10">
       <c r="A10" s="95" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1320,18 +1323,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>290.6</v>
+        <v>299.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2920.5</v>
+        <v>3007</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="11">
       <c r="A11" s="95" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1356,18 +1359,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>293.05</v>
+        <v>290.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2945.2</v>
+        <v>2920.5</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1376,11 +1379,11 @@
     </row>
     <row r="12">
       <c r="A12" s="95" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1392,18 +1395,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>295.65</v>
+        <v>293.05</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2971.3</v>
+        <v>2945.2</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="13">
       <c r="A13" s="95" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1428,18 +1431,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>314</v>
+        <v>295.65</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3155.7</v>
+        <v>2971.3</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="14">
       <c r="A14" s="95" t="n">
-        <v>45968</v>
+        <v>45978</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1464,132 +1467,67 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3155.7</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608260909</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J14" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="95" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>295.4</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>2968.8</v>
       </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>CN#252607899666</t>
         </is>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>14.8</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J15" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="38" t="n">
+    <row r="16">
+      <c r="A16" s="38" t="n">
         <v>45880</v>
       </c>
-      <c r="B15" s="39" t="inlineStr">
+      <c r="B16" s="39" t="inlineStr">
         <is>
           <t>DIV</t>
-        </is>
-      </c>
-      <c r="C15" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D15" s="40" t="n">
-        <v>180</v>
-      </c>
-      <c r="E15" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="41" t="n">
-        <v>90</v>
-      </c>
-      <c r="G15" s="39" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H15" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K15" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N15" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O15" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R15" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S15" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T15" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U15" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V15" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W15" s="47" t="n"/>
-      <c r="X15" s="47" t="n"/>
-      <c r="Y15" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="47" t="n"/>
-      <c r="AA15" s="47" t="n"/>
-      <c r="AB15" s="48" t="n"/>
-      <c r="AC15" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD15" s="49" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B16" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
@@ -1598,195 +1536,196 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>287.88</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="41" t="n">
-        <v>2878.79</v>
+        <v>90</v>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.0.5000/- per share on Ex-Date: 11-AUG-2025</t>
         </is>
       </c>
       <c r="H16" s="40" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I16" s="40" t="n">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N16" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R16" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S16" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T16" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U16" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V16" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W16" s="47" t="n"/>
       <c r="X16" s="47" t="n"/>
       <c r="Y16" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z16" s="47" t="n"/>
       <c r="AA16" s="47" t="n"/>
       <c r="AB16" s="48" t="n"/>
       <c r="AC16" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD16" s="49" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B17" s="60" t="inlineStr">
+      <c r="A17" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B17" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C17" s="60" t="inlineStr">
+      <c r="C17" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D17" s="52" t="n">
+      <c r="D17" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E17" s="53" t="n">
-        <v>223.76</v>
-      </c>
-      <c r="F17" s="54">
-        <f>E7*D7 + sum(H7:I7)</f>
-        <v/>
-      </c>
-      <c r="G17" s="60" t="inlineStr">
+      <c r="E17" s="41" t="n">
+        <v>287.88</v>
+      </c>
+      <c r="F17" s="41" t="n">
+        <v>2878.79</v>
+      </c>
+      <c r="G17" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H17" s="52" t="n"/>
-      <c r="I17" s="52" t="n">
-        <v>15.75</v>
+      <c r="H17" s="40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I17" s="40" t="n">
+        <v>17.43</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N17" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R17" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S17" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T17" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U17" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V17" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W17" s="47" t="n"/>
       <c r="X17" s="47" t="n"/>
       <c r="Y17" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z17" s="47" t="n"/>
       <c r="AA17" s="47" t="n"/>
       <c r="AB17" s="48" t="n"/>
       <c r="AC17" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD17" s="49" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B18" s="60" t="inlineStr">
         <is>
@@ -1802,92 +1741,91 @@
         <v>10</v>
       </c>
       <c r="E18" s="53" t="n">
-        <v>223.37</v>
-      </c>
-      <c r="F18" s="53" t="n">
-        <v>2233.74</v>
+        <v>223.76</v>
+      </c>
+      <c r="F18" s="54">
+        <f>E7*D7 + sum(H7:I7)</f>
+        <v/>
       </c>
       <c r="G18" s="60" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H18" s="52" t="n">
-        <v>2.23</v>
-      </c>
+      <c r="H18" s="52" t="n"/>
       <c r="I18" s="52" t="n">
-        <v>13.51</v>
+        <v>15.75</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N18" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R18" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S18" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T18" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U18" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V18" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W18" s="47" t="n"/>
       <c r="X18" s="47" t="n"/>
       <c r="Y18" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z18" s="47" t="n"/>
       <c r="AA18" s="47" t="n"/>
       <c r="AB18" s="48" t="n"/>
       <c r="AC18" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD18" s="49" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="50" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B19" s="60" t="inlineStr">
         <is>
@@ -1900,13 +1838,13 @@
         </is>
       </c>
       <c r="D19" s="52" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="53" t="n">
-        <v>223.82</v>
+        <v>223.37</v>
       </c>
       <c r="F19" s="53" t="n">
-        <v>3581.18</v>
+        <v>2233.74</v>
       </c>
       <c r="G19" s="60" t="inlineStr">
         <is>
@@ -1914,74 +1852,74 @@
         </is>
       </c>
       <c r="H19" s="52" t="n">
-        <v>3.56</v>
+        <v>2.23</v>
       </c>
       <c r="I19" s="52" t="n">
-        <v>21.62</v>
+        <v>13.51</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N19" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R19" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S19" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T19" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U19" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V19" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W19" s="47" t="n"/>
       <c r="X19" s="47" t="n"/>
       <c r="Y19" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z19" s="47" t="n"/>
       <c r="AA19" s="47" t="n"/>
       <c r="AB19" s="48" t="n"/>
       <c r="AC19" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD19" s="49" t="n"/>
@@ -2001,13 +1939,13 @@
         </is>
       </c>
       <c r="D20" s="52" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E20" s="53" t="n">
         <v>223.82</v>
       </c>
       <c r="F20" s="53" t="n">
-        <v>5371.75</v>
+        <v>3581.18</v>
       </c>
       <c r="G20" s="60" t="inlineStr">
         <is>
@@ -2015,81 +1953,81 @@
         </is>
       </c>
       <c r="H20" s="52" t="n">
-        <v>5.32</v>
+        <v>3.56</v>
       </c>
       <c r="I20" s="52" t="n">
-        <v>32.43</v>
+        <v>21.62</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N20" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R20" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S20" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T20" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U20" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V20" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W20" s="47" t="n"/>
       <c r="X20" s="47" t="n"/>
       <c r="Y20" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z20" s="47" t="n"/>
       <c r="AA20" s="47" t="n"/>
       <c r="AB20" s="48" t="n"/>
       <c r="AC20" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD20" s="49" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B21" s="60" t="inlineStr">
         <is>
@@ -2102,13 +2040,13 @@
         </is>
       </c>
       <c r="D21" s="52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E21" s="53" t="n">
-        <v>240.73</v>
+        <v>223.82</v>
       </c>
       <c r="F21" s="53" t="n">
-        <v>1925.84</v>
+        <v>5371.75</v>
       </c>
       <c r="G21" s="60" t="inlineStr">
         <is>
@@ -2116,74 +2054,74 @@
         </is>
       </c>
       <c r="H21" s="52" t="n">
-        <v>1.91</v>
+        <v>5.32</v>
       </c>
       <c r="I21" s="52" t="n">
-        <v>11.69</v>
+        <v>32.43</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N21" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R21" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S21" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T21" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U21" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V21" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W21" s="47" t="n"/>
       <c r="X21" s="47" t="n"/>
       <c r="Y21" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z21" s="47" t="n"/>
       <c r="AA21" s="47" t="n"/>
       <c r="AB21" s="48" t="n"/>
       <c r="AC21" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD21" s="49" t="n"/>
@@ -2203,13 +2141,13 @@
         </is>
       </c>
       <c r="D22" s="52" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E22" s="53" t="n">
-        <v>240.8</v>
+        <v>240.73</v>
       </c>
       <c r="F22" s="53" t="n">
-        <v>7705.56</v>
+        <v>1925.84</v>
       </c>
       <c r="G22" s="60" t="inlineStr">
         <is>
@@ -2217,81 +2155,81 @@
         </is>
       </c>
       <c r="H22" s="52" t="n">
-        <v>7.63</v>
+        <v>1.91</v>
       </c>
       <c r="I22" s="52" t="n">
-        <v>46.73</v>
+        <v>11.69</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B23" s="60" t="inlineStr">
         <is>
@@ -2304,13 +2242,13 @@
         </is>
       </c>
       <c r="D23" s="52" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E23" s="53" t="n">
-        <v>254.55</v>
+        <v>240.8</v>
       </c>
       <c r="F23" s="53" t="n">
-        <v>5090.93</v>
+        <v>7705.56</v>
       </c>
       <c r="G23" s="60" t="inlineStr">
         <is>
@@ -2318,81 +2256,81 @@
         </is>
       </c>
       <c r="H23" s="52" t="n">
-        <v>5.05</v>
+        <v>7.63</v>
       </c>
       <c r="I23" s="52" t="n">
-        <v>30.68</v>
+        <v>46.73</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="50" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B24" s="60" t="inlineStr">
         <is>
@@ -2405,13 +2343,13 @@
         </is>
       </c>
       <c r="D24" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E24" s="53" t="n">
-        <v>243.01</v>
+        <v>254.55</v>
       </c>
       <c r="F24" s="53" t="n">
-        <v>9720.58</v>
+        <v>5090.93</v>
       </c>
       <c r="G24" s="60" t="inlineStr">
         <is>
@@ -2419,81 +2357,81 @@
         </is>
       </c>
       <c r="H24" s="52" t="n">
-        <v>9.630000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="I24" s="52" t="n">
-        <v>58.95</v>
+        <v>30.68</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="50" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B25" s="60" t="inlineStr">
         <is>
@@ -2506,13 +2444,13 @@
         </is>
       </c>
       <c r="D25" s="52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E25" s="53" t="n">
-        <v>322.62</v>
+        <v>243.01</v>
       </c>
       <c r="F25" s="53" t="n">
-        <v>3226.25</v>
+        <v>9720.58</v>
       </c>
       <c r="G25" s="60" t="inlineStr">
         <is>
@@ -2520,81 +2458,81 @@
         </is>
       </c>
       <c r="H25" s="52" t="n">
-        <v>3.25</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I25" s="52" t="n">
-        <v>19.5</v>
+        <v>58.95</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="50" t="n">
-        <v>45362</v>
+        <v>45621</v>
       </c>
       <c r="B26" s="60" t="inlineStr">
         <is>
@@ -2603,17 +2541,17 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D26" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="53" t="n">
-        <v>344.79</v>
+        <v>322.62</v>
       </c>
       <c r="F26" s="53" t="n">
-        <v>6895.77</v>
+        <v>3226.25</v>
       </c>
       <c r="G26" s="60" t="inlineStr">
         <is>
@@ -2621,81 +2559,81 @@
         </is>
       </c>
       <c r="H26" s="52" t="n">
-        <v>6.89</v>
+        <v>3.25</v>
       </c>
       <c r="I26" s="52" t="n">
-        <v>41.34</v>
+        <v>19.5</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B27" s="60" t="inlineStr">
         <is>
@@ -2708,13 +2646,13 @@
         </is>
       </c>
       <c r="D27" s="52" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E27" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="F27" s="53" t="n">
-        <v>12939.29</v>
+        <v>6895.77</v>
       </c>
       <c r="G27" s="60" t="inlineStr">
         <is>
@@ -2722,81 +2660,81 @@
         </is>
       </c>
       <c r="H27" s="52" t="n">
-        <v>13.24</v>
+        <v>6.89</v>
       </c>
       <c r="I27" s="52" t="n">
-        <v>77.47</v>
+        <v>41.34</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="50" t="n">
-        <v>45282</v>
+        <v>45358</v>
       </c>
       <c r="B28" s="60" t="inlineStr">
         <is>
@@ -2805,17 +2743,17 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E28" s="53" t="n">
-        <v>237.27</v>
+        <v>323.48</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>1660.92</v>
+        <v>12939.29</v>
       </c>
       <c r="G28" s="60" t="inlineStr">
         <is>
@@ -2823,89 +2761,77 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>1.65</v>
+        <v>13.24</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>10.07</v>
+        <v>77.47</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K28" s="47" t="n"/>
-      <c r="L28" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="56">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="55" t="n"/>
-      <c r="P28" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="55" t="n"/>
-      <c r="T28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="55">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W28" s="53" t="n">
-        <v>344.79</v>
-      </c>
-      <c r="X28" s="50" t="n">
-        <v>45362</v>
-      </c>
-      <c r="Y28" s="46" t="n">
-        <v>0.4436717046</v>
-      </c>
-      <c r="Z28" s="57" t="n">
-        <v>742.10304</v>
-      </c>
-      <c r="AA28" s="57" t="n">
-        <v>2402.99304</v>
-      </c>
-      <c r="AB28" s="58" t="n">
-        <v>7</v>
-      </c>
+      <c r="K28" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R28" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S28" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T28" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U28" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V28" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W28" s="47" t="n"/>
+      <c r="X28" s="47" t="n"/>
+      <c r="Y28" s="46">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="47" t="n"/>
+      <c r="AA28" s="47" t="n"/>
+      <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
-      <c r="AE28" s="59" t="n"/>
-      <c r="AF28" s="59" t="n"/>
-      <c r="AG28" s="59" t="n"/>
-      <c r="AH28" s="59" t="n"/>
-      <c r="AI28" s="59" t="n"/>
-      <c r="AJ28" s="59" t="n"/>
-      <c r="AK28" s="59" t="n"/>
-      <c r="AL28" s="59" t="n"/>
-      <c r="AM28" s="59" t="n"/>
-      <c r="AN28" s="59" t="n"/>
-      <c r="AO28" s="59" t="n"/>
-      <c r="AP28" s="59" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="50" t="n">
@@ -2922,13 +2848,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>1423.63</v>
+        <v>1660.92</v>
       </c>
       <c r="G29" s="60" t="inlineStr">
         <is>
@@ -2936,10 +2862,10 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>8.619999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
@@ -2947,41 +2873,41 @@
       </c>
       <c r="K29" s="47" t="n"/>
       <c r="L29" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N29" s="56">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O29" s="55" t="n"/>
       <c r="P29" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S29" s="55" t="n"/>
       <c r="T29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V29" s="55">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W29" s="53" t="n">
@@ -2991,19 +2917,19 @@
         <v>45362</v>
       </c>
       <c r="Y29" s="46" t="n">
-        <v>0.4436814307</v>
+        <v>0.4436717046</v>
       </c>
       <c r="Z29" s="57" t="n">
-        <v>636.08832</v>
+        <v>742.10304</v>
       </c>
       <c r="AA29" s="57" t="n">
-        <v>2059.70832</v>
+        <v>2402.99304</v>
       </c>
       <c r="AB29" s="58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC29" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
@@ -3035,13 +2961,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>711.8200000000001</v>
+        <v>1423.63</v>
       </c>
       <c r="G30" s="60" t="inlineStr">
         <is>
@@ -3049,10 +2975,10 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>4.31</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
@@ -3060,41 +2986,41 @@
       </c>
       <c r="K30" s="47" t="n"/>
       <c r="L30" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N30" s="56">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O30" s="55" t="n"/>
       <c r="P30" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S30" s="55" t="n"/>
       <c r="T30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V30" s="55">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W30" s="53" t="n">
@@ -3104,19 +3030,19 @@
         <v>45362</v>
       </c>
       <c r="Y30" s="46" t="n">
-        <v>0.4436752413</v>
+        <v>0.4436814307</v>
       </c>
       <c r="Z30" s="57" t="n">
-        <v>318.04416</v>
+        <v>636.08832</v>
       </c>
       <c r="AA30" s="57" t="n">
-        <v>1029.85416</v>
+        <v>2059.70832</v>
       </c>
       <c r="AB30" s="58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC30" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
@@ -3148,13 +3074,13 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="53" t="n">
         <v>237.27</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>949.0700000000001</v>
+        <v>711.8200000000001</v>
       </c>
       <c r="G31" s="60" t="inlineStr">
         <is>
@@ -3162,10 +3088,10 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>5.73</v>
+        <v>4.31</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
@@ -3173,41 +3099,41 @@
       </c>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N31" s="56">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O31" s="55" t="n"/>
       <c r="P31" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S31" s="55" t="n"/>
       <c r="T31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20)-(2*sum(H20:I20)), "")</f>
         <v/>
       </c>
       <c r="U31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V31" s="55">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W31" s="53" t="n">
@@ -3217,19 +3143,19 @@
         <v>45362</v>
       </c>
       <c r="Y31" s="46" t="n">
-        <v>0.443696905</v>
+        <v>0.4436752413</v>
       </c>
       <c r="Z31" s="57" t="n">
-        <v>424.05888</v>
+        <v>318.04416</v>
       </c>
       <c r="AA31" s="57" t="n">
-        <v>1373.13888</v>
+        <v>1029.85416</v>
       </c>
       <c r="AB31" s="58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
@@ -3248,7 +3174,7 @@
     </row>
     <row r="32">
       <c r="A32" s="50" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B32" s="60" t="inlineStr">
         <is>
@@ -3261,13 +3187,13 @@
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E32" s="53" t="n">
-        <v>243.71</v>
+        <v>237.27</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>4386.85</v>
+        <v>949.0700000000001</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
@@ -3275,10 +3201,10 @@
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>4.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>26.5</v>
+        <v>5.73</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
@@ -3286,63 +3212,63 @@
       </c>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N32" s="56">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O32" s="55" t="n"/>
       <c r="P32" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S32" s="55" t="n"/>
       <c r="T32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21)-(2*sum(H21:I21)), "")</f>
         <v/>
       </c>
       <c r="U32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V32" s="55">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W32" s="53" t="n">
-        <v>323.48</v>
+        <v>344.79</v>
       </c>
       <c r="X32" s="50" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="Y32" s="46" t="n">
-        <v>0.3204739933</v>
+        <v>0.443696905</v>
       </c>
       <c r="Z32" s="57" t="n">
-        <v>1415.75796</v>
+        <v>424.05888</v>
       </c>
       <c r="AA32" s="57" t="n">
-        <v>5802.53796</v>
+        <v>1373.13888</v>
       </c>
       <c r="AB32" s="58" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AC32" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -3361,7 +3287,7 @@
     </row>
     <row r="33">
       <c r="A33" s="50" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B33" s="60" t="inlineStr">
         <is>
@@ -3374,13 +3300,13 @@
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="53" t="n">
-        <v>228.11</v>
+        <v>243.71</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>2281.06</v>
+        <v>4386.85</v>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
@@ -3388,10 +3314,10 @@
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>2.27</v>
+        <v>4.35</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>13.79</v>
+        <v>26.5</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
@@ -3399,41 +3325,41 @@
       </c>
       <c r="K33" s="47" t="n"/>
       <c r="L33" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N33" s="56">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O33" s="55" t="n"/>
       <c r="P33" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S33" s="55" t="n"/>
       <c r="T33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22)-(2*sum(H22:I22)), "")</f>
         <v/>
       </c>
       <c r="U33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V33" s="55">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W33" s="53" t="n">
@@ -3443,19 +3369,19 @@
         <v>45358</v>
       </c>
       <c r="Y33" s="46" t="n">
-        <v>0.4093596329</v>
+        <v>0.3204739933</v>
       </c>
       <c r="Z33" s="57" t="n">
-        <v>940.3482</v>
+        <v>1415.75796</v>
       </c>
       <c r="AA33" s="57" t="n">
-        <v>3221.4482</v>
+        <v>5802.53796</v>
       </c>
       <c r="AB33" s="58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC33" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
@@ -3474,33 +3400,37 @@
     </row>
     <row r="34">
       <c r="A34" s="50" t="n">
-        <v>45127</v>
-      </c>
-      <c r="B34" s="60" t="n"/>
+        <v>45258</v>
+      </c>
+      <c r="B34" s="60" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
       <c r="D34" s="52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" s="53" t="n">
-        <v>115.22</v>
+        <v>228.11</v>
       </c>
       <c r="F34" s="53" t="n">
-        <v>1382.62</v>
+        <v>2281.06</v>
       </c>
       <c r="G34" s="60" t="inlineStr">
         <is>
-          <t>Price derived from purchase price of corresponding RIL Shares</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H34" s="52" t="n">
-        <v>1.37</v>
+        <v>2.27</v>
       </c>
       <c r="I34" s="52" t="n">
-        <v>8.359999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
@@ -3508,41 +3438,41 @@
       </c>
       <c r="K34" s="47" t="n"/>
       <c r="L34" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N34" s="56">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O34" s="55" t="n"/>
       <c r="P34" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S34" s="55" t="n"/>
       <c r="T34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (J23*D23)-(E23*D23)-(2*sum(H23:I23)), "")</f>
         <v/>
       </c>
       <c r="U34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V34" s="55">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W34" s="53" t="n">
@@ -3552,19 +3482,19 @@
         <v>45358</v>
       </c>
       <c r="Y34" s="46" t="n">
-        <v>1.769765016</v>
+        <v>0.4093596329</v>
       </c>
       <c r="Z34" s="57" t="n">
-        <v>2464.13232</v>
+        <v>940.3482</v>
       </c>
       <c r="AA34" s="57" t="n">
-        <v>3846.77232</v>
+        <v>3221.4482</v>
       </c>
       <c r="AB34" s="58" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC34" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
@@ -3582,20 +3512,113 @@
       <c r="AP34" s="59" t="n"/>
     </row>
     <row r="35">
-      <c r="E35" s="61" t="n"/>
-      <c r="F35" s="61" t="n"/>
-      <c r="G35" s="62" t="n"/>
-      <c r="J35" s="61" t="n"/>
-      <c r="K35" s="61" t="n"/>
-      <c r="L35" s="61" t="n"/>
-      <c r="M35" s="64" t="n"/>
-      <c r="W35" s="61" t="n"/>
-      <c r="X35" s="61" t="n"/>
-      <c r="Y35" s="61" t="n"/>
-      <c r="Z35" s="61" t="n"/>
-      <c r="AA35" s="61" t="n"/>
-      <c r="AB35" s="61" t="n"/>
-      <c r="AC35" s="61" t="n"/>
+      <c r="A35" s="50" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B35" s="60" t="n"/>
+      <c r="C35" s="60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E35" s="53" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="F35" s="53" t="n">
+        <v>1382.62</v>
+      </c>
+      <c r="G35" s="60" t="inlineStr">
+        <is>
+          <t>Price derived from purchase price of corresponding RIL Shares</t>
+        </is>
+      </c>
+      <c r="H35" s="52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I35" s="52" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J35" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K35" s="47" t="n"/>
+      <c r="L35" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="56">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="55" t="n"/>
+      <c r="P35" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S35" s="55" t="n"/>
+      <c r="T35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*sum(H24:I24)), "")</f>
+        <v/>
+      </c>
+      <c r="U35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V35" s="55">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W35" s="53" t="n">
+        <v>323.48</v>
+      </c>
+      <c r="X35" s="50" t="n">
+        <v>45358</v>
+      </c>
+      <c r="Y35" s="46" t="n">
+        <v>1.769765016</v>
+      </c>
+      <c r="Z35" s="57" t="n">
+        <v>2464.13232</v>
+      </c>
+      <c r="AA35" s="57" t="n">
+        <v>3846.77232</v>
+      </c>
+      <c r="AB35" s="58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC35" s="44">
+        <f>if(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD35" s="49" t="n"/>
+      <c r="AE35" s="59" t="n"/>
+      <c r="AF35" s="59" t="n"/>
+      <c r="AG35" s="59" t="n"/>
+      <c r="AH35" s="59" t="n"/>
+      <c r="AI35" s="59" t="n"/>
+      <c r="AJ35" s="59" t="n"/>
+      <c r="AK35" s="59" t="n"/>
+      <c r="AL35" s="59" t="n"/>
+      <c r="AM35" s="59" t="n"/>
+      <c r="AN35" s="59" t="n"/>
+      <c r="AO35" s="59" t="n"/>
+      <c r="AP35" s="59" t="n"/>
     </row>
     <row r="36">
       <c r="E36" s="61" t="n"/>
@@ -18564,6 +18587,7 @@
       <c r="J971" s="61" t="n"/>
       <c r="K971" s="61" t="n"/>
       <c r="L971" s="61" t="n"/>
+      <c r="M971" s="64" t="n"/>
       <c r="W971" s="61" t="n"/>
       <c r="X971" s="61" t="n"/>
       <c r="Y971" s="61" t="n"/>
@@ -18811,6 +18835,21 @@
       <c r="AA987" s="61" t="n"/>
       <c r="AB987" s="61" t="n"/>
       <c r="AC987" s="61" t="n"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="61" t="n"/>
+      <c r="F988" s="61" t="n"/>
+      <c r="G988" s="62" t="n"/>
+      <c r="J988" s="61" t="n"/>
+      <c r="K988" s="61" t="n"/>
+      <c r="L988" s="61" t="n"/>
+      <c r="W988" s="61" t="n"/>
+      <c r="X988" s="61" t="n"/>
+      <c r="Y988" s="61" t="n"/>
+      <c r="Z988" s="61" t="n"/>
+      <c r="AA988" s="61" t="n"/>
+      <c r="AB988" s="61" t="n"/>
+      <c r="AC988" s="61" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>
